--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="229">
   <si>
     <t>Fecha</t>
   </si>
@@ -1505,6 +1505,12 @@
   </si>
   <si>
     <t>big data description</t>
+  </si>
+  <si>
+    <t>https://core.ac.uk/download/pdf/41782666.pdf</t>
+  </si>
+  <si>
+    <t>Modelo matemático del sedimentador</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2163,7 @@
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,15 +3654,23 @@
       <c r="G73" s="19"/>
       <c r="H73" s="22"/>
     </row>
-    <row r="74" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
+      <c r="C74" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74" s="19">
+        <v>41782666</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>228</v>
+      </c>
       <c r="G74" s="19"/>
       <c r="H74" s="22"/>
     </row>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8025" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="7965" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,11 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="302">
   <si>
     <t>Fecha</t>
   </si>
@@ -1511,6 +1506,253 @@
   </si>
   <si>
     <t>Modelo matemático del sedimentador</t>
+  </si>
+  <si>
+    <t>98e0fd82484a5cc0a47cdf0fe7dd88ad55c8 modelo filtro</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/90a8/98e0fd82484a5cc0a47cdf0fe7dd88ad55c8.pdf</t>
+  </si>
+  <si>
+    <t>MODELO LITRO - SIMULACION TECNOLOGICA DEL PROCESO DE FILTRACION DE AGUAS PARA CONSUMO HUMANO</t>
+  </si>
+  <si>
+    <t>http://www.bvsde.paho.org/bvsaidis/tratagua/peru/cubapa008.pdf</t>
+  </si>
+  <si>
+    <t>cubapa008</t>
+  </si>
+  <si>
+    <t>modelo de filtro</t>
+  </si>
+  <si>
+    <t>http://catarina.udlap.mx/u_dl_a/tales/documentos/lic/ponce_o_e/capitulo3.pdf</t>
+  </si>
+  <si>
+    <t>capitulo3</t>
+  </si>
+  <si>
+    <t>filtros descripcion</t>
+  </si>
+  <si>
+    <t>https://repository.ucatolica.edu.co/bitstream/10983/14455/1/PROYECTO%20SEDIMENTACION%20TIPO%20II.pdf</t>
+  </si>
+  <si>
+    <t>PROYECTO SEDIMENTACION TPO II</t>
+  </si>
+  <si>
+    <t>formulas tiempos sedimentacion</t>
+  </si>
+  <si>
+    <t>mathematical_modeling</t>
+  </si>
+  <si>
+    <t>http://www.rc.unesp.br/igce/planejamento/download/rodrigo/mathematical_modeling.pdf</t>
+  </si>
+  <si>
+    <t>modelo floculacion</t>
+  </si>
+  <si>
+    <t>http://discovery.ucl.ac.uk/1553176/1/Akinmolayan_PhD_Thesis.pdf</t>
+  </si>
+  <si>
+    <t>tesis doctoral modelo de los procesos</t>
+  </si>
+  <si>
+    <t>modelo filtros</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/BF00208406</t>
+  </si>
+  <si>
+    <t>Akinmolayan_PhD_Thesis.pdf</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>vigneswaran1986</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/315466660_Process_Modelling_and_Simulation_of_a_Simple_Water_Treatment_Plant</t>
+  </si>
+  <si>
+    <t>Process_Modelling_and_Simulation_of_a_Simple_Water</t>
+  </si>
+  <si>
+    <t>modelo planta completa (sencillo)</t>
+  </si>
+  <si>
+    <t>@article{article,
+author = {Ani, Vincent},
+year = {2016},
+month = {12},
+pages = {84-94},
+title = {Process Modelling and Simulation of a Simple Water Treatment Plant},
+volume = {4},
+journal = {International Journal of Intelligent Systems and Applications in Engineering},
+doi = {10.18201/ijisae.2016426378}
+}</t>
+  </si>
+  <si>
+    <t>Vigneswaran, S. &amp; Jing Song, C. Water Air Soil Pollut (1986) 29: 155.</t>
+  </si>
+  <si>
+    <t>UNIDAD5</t>
+  </si>
+  <si>
+    <t>explicacion potabilizacion</t>
+  </si>
+  <si>
+    <t>http://cidta.usal.es/cursos/etap/modulos/principal/principal.htm</t>
+  </si>
+  <si>
+    <t>v3n4_377</t>
+  </si>
+  <si>
+    <t>modelo de dosificación</t>
+  </si>
+  <si>
+    <t>http://www.rse.inrs.ca/english/resumes/v3n4a2.php</t>
+  </si>
+  <si>
+    <t>Bazer-Bachi, A., E. Puech-Coste, R. Ben Aim and J.L. Probst (1990). Mathematical modelling of optimal coagulant dose in water treatment plant. Rev. Sci. Eau, 3 (4) : 377-397. [article in french]
+Original title : Modélisation mathématique du taux de coagulant dans une station de traitement d'eau.</t>
+  </si>
+  <si>
+    <t>http://www.emb.cl/electroindustria/articulo.mvc?xid=158&amp;srch=mahla&amp;act=3</t>
+  </si>
+  <si>
+    <t>definición sistemas hibridos</t>
+  </si>
+  <si>
+    <t>https://www.ns-businesshub.com/technology/digital-twin-examples-formula1-singapore/</t>
+  </si>
+  <si>
+    <t>digital twins examples</t>
+  </si>
+  <si>
+    <t>https://www.editores-srl.com.ar/sites/default/files/AADECA_Revista_10-Octubre-Diciembre_2018-BAJA.pdf</t>
+  </si>
+  <si>
+    <t>AADECA_Revista_10-Octubre-Diciembre_2018-BAJA</t>
+  </si>
+  <si>
+    <t>ARTÍCULOS VARIOS E INTERESANTES BAS</t>
+  </si>
+  <si>
+    <t>ABB_Review_2_2018_ES_72dpi</t>
+  </si>
+  <si>
+    <t>abb review agua y gemelo digital</t>
+  </si>
+  <si>
+    <t>http://search.abb.com/library/Download.aspx?DocumentID=9AKK107046A2953%20&amp;LanguageCode=es&amp;DocumentPartId=&amp;Action=Launch</t>
+  </si>
+  <si>
+    <t>https://blogs.iadb.org/energia/es/3262/</t>
+  </si>
+  <si>
+    <t>https://www.weforum.org/agenda/2019/03/5-things-you-need-to-know-about-water/</t>
+  </si>
+  <si>
+    <t>articulo sobre agua, imagen interactiva</t>
+  </si>
+  <si>
+    <t>TFM_PABLO_GARCIA_GONZALEZ</t>
+  </si>
+  <si>
+    <t>gemelo digital armada</t>
+  </si>
+  <si>
+    <t>http://oa.upm.es/53240/1/TFM_PABLO_GARCIA_GONZALEZ.pdf</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/sites/bernardmarr/2019/04/23/7-amazing-examples-of-digital-twin-technology-in-practice/#5aff609f6443</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/7501015</t>
+  </si>
+  <si>
+    <t>lom2016</t>
+  </si>
+  <si>
+    <t>industria 4.0 y smart cities</t>
+  </si>
+  <si>
+    <t>NO CITAR</t>
+  </si>
+  <si>
+    <t>Vito Albino, Umberto Berardi, and Rosa Maria Dangelico. Smart cities: Definitions,
+dimensions, performance, and initiatives. Journal of urban technology,
+22(1):3–21, 2015.</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/656e/4fb0564d96407161d9e541a9ca15375d6c60.pdf</t>
+  </si>
+  <si>
+    <t>smart cities vito</t>
+  </si>
+  <si>
+    <t>https://www.automation.com/automation-news/article/the-4th-industrial-revolution-industry-40-unfolding-at-hannover-messe-2014</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/smarterplanet/us/en/smarter_cities/overview/</t>
+  </si>
+  <si>
+    <t>diferencia i4.0 y previo!! Digital twins</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/307864150_Design_Principles_for_Industrie_40_Scenarios_A_Literature_Review</t>
+  </si>
+  <si>
+    <t>i 4.0 paper citable</t>
+  </si>
+  <si>
+    <t>@unknown{unknown,
+author = {Hermann, Mario and Pentek, Tobias and Otto, Boris},
+year = {2015},
+month = {01},
+pages = {},
+title = {Design Principles for Industrie 4.0 Scenarios: A Literature Review},
+doi = {10.13140/RG.2.2.29269.22248}
+}</t>
+  </si>
+  <si>
+    <t>I 4.0 origen</t>
+  </si>
+  <si>
+    <t>https://tienda.digital/2018/10/26/industria-4-0-definicion-principios-de-diseno-desafios-y-el-futuro-del-empleo/</t>
+  </si>
+  <si>
+    <t>i 4.0 desafios, beneficios, componentes, definición</t>
+  </si>
+  <si>
+    <t>Conclusiones etc</t>
+  </si>
+  <si>
+    <t>digitalización REPETIDO</t>
+  </si>
+  <si>
+    <t>10.1007@978-3-030-27477-1</t>
+  </si>
+  <si>
+    <t>@inbook{inbook,
+author = {Chacon, Edgar and Cardillo Albarrán, Juan and Cruz Salazar, Luis},
+year = {2020},
+month = {01},
+pages = {352-365},
+title = {The Control of Water Distribution Systems as a Holonic System},
+isbn = {978-3-030-27476-4},
+doi = {10.1007/978-3-030-27477-1_27}
+}</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/334946650_The_Control_of_Water_Distribution_Systems_as_a_Holonic_System</t>
+  </si>
+  <si>
+    <t>libro acerca de automatizacio agua holones  
+NO CITABLE</t>
   </si>
 </sst>
 </file>
@@ -2160,10 +2402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3674,77 +3916,669 @@
       <c r="G74" s="19"/>
       <c r="H74" s="22"/>
     </row>
-    <row r="75" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="21" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
+      <c r="C75" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>231</v>
+      </c>
       <c r="G75" s="19"/>
       <c r="H75" s="22"/>
     </row>
-    <row r="76" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
+      <c r="C76" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>234</v>
+      </c>
       <c r="G76" s="19"/>
       <c r="H76" s="22"/>
     </row>
-    <row r="77" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
+      <c r="C77" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>237</v>
+      </c>
       <c r="G77" s="19"/>
       <c r="H77" s="22"/>
     </row>
-    <row r="78" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
+      <c r="C78" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>240</v>
+      </c>
       <c r="G78" s="19"/>
       <c r="H78" s="22"/>
     </row>
-    <row r="79" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
+      <c r="C79" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>243</v>
+      </c>
       <c r="G79" s="19"/>
       <c r="H79" s="22"/>
     </row>
-    <row r="80" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
+      <c r="C80" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>245</v>
+      </c>
       <c r="G80" s="19"/>
       <c r="H80" s="22"/>
+    </row>
+    <row r="81" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H81" s="22"/>
+    </row>
+    <row r="82" spans="1:8" s="21" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G82" s="19"/>
+      <c r="H82" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G83" s="19"/>
+      <c r="H83" s="22"/>
+    </row>
+    <row r="84" spans="1:8" s="21" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="H84" s="22"/>
+    </row>
+    <row r="85" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G85" s="19"/>
+      <c r="H85" s="22"/>
+    </row>
+    <row r="86" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G86" s="19"/>
+      <c r="H86" s="22"/>
+    </row>
+    <row r="87" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G87" s="19"/>
+      <c r="H87" s="22"/>
+    </row>
+    <row r="88" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="G88" s="19"/>
+      <c r="H88" s="22"/>
+    </row>
+    <row r="89" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="G89" s="19"/>
+      <c r="H89" s="22"/>
+    </row>
+    <row r="90" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G90" s="19"/>
+      <c r="H90" s="22"/>
+    </row>
+    <row r="91" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G91" s="19"/>
+      <c r="H91" s="22"/>
+    </row>
+    <row r="92" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G92" s="19"/>
+      <c r="H92" s="22"/>
+    </row>
+    <row r="93" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="G93" s="19"/>
+      <c r="H93" s="22"/>
+    </row>
+    <row r="94" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="H94" s="22"/>
+    </row>
+    <row r="95" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="G95" s="19"/>
+      <c r="H95" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="G96" s="19"/>
+      <c r="H96" s="22"/>
+    </row>
+    <row r="97" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G97" s="19"/>
+      <c r="H97" s="22"/>
+    </row>
+    <row r="98" spans="1:8" s="21" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="G98" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="H98" s="22"/>
+    </row>
+    <row r="99" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G99" s="19"/>
+      <c r="H99" s="22"/>
+    </row>
+    <row r="100" spans="1:8" s="21" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="H100" s="22"/>
+    </row>
+    <row r="101" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="22"/>
+    </row>
+    <row r="102" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="22"/>
+    </row>
+    <row r="103" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7">
+        <v>102</v>
+      </c>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="22"/>
+    </row>
+    <row r="104" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="22"/>
+    </row>
+    <row r="105" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7">
+        <v>104</v>
+      </c>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="22"/>
+    </row>
+    <row r="106" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="22"/>
+    </row>
+    <row r="107" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
+        <v>106</v>
+      </c>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="22"/>
+    </row>
+    <row r="108" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7">
+        <v>107</v>
+      </c>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="22"/>
+    </row>
+    <row r="109" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7">
+        <v>108</v>
+      </c>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="22"/>
+    </row>
+    <row r="110" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7">
+        <v>109</v>
+      </c>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="22"/>
+    </row>
+    <row r="111" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
+        <v>110</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="22"/>
+    </row>
+    <row r="112" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="22"/>
+    </row>
+    <row r="113" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
+        <v>112</v>
+      </c>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="22"/>
+    </row>
+    <row r="114" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="328">
   <si>
     <t>Fecha</t>
   </si>
@@ -1753,6 +1753,112 @@
   <si>
     <t>libro acerca de automatizacio agua holones  
 NO CITABLE</t>
+  </si>
+  <si>
+    <t>No sirve</t>
+  </si>
+  <si>
+    <t>Estudios y Diseños Planta de Potabilización de Agua Centro Agropecuario Marengo</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2351978917301610</t>
+  </si>
+  <si>
+    <t>digital twin</t>
+  </si>
+  <si>
+    <t>@article{uhlemann2017digital,
+  title={The digital twin: demonstrating the potential of real time data acquisition in production systems},
+  author={Uhlemann, Thomas H-J and Schock, Christoph and Lehmann, Christian and Freiberger, Stefan and Steinhilper, Rolf},
+  journal={Procedia Manufacturing},
+  volume={9},
+  pages={113--120},
+  year={2017},
+  publisher={Elsevier}
+}</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2405896316325538</t>
+  </si>
+  <si>
+    <t>@article{schroeder2016digital,
+  title={Digital twin data modeling with automationml and a communication methodology for data exchange},
+  author={Schroeder, Greyce N and Steinmetz, Charles and Pereira, Carlos E and Espindola, Danubia B},
+  journal={IFAC-PapersOnLine},
+  volume={49},
+  number={30},
+  pages={12--17},
+  year={2016},
+  publisher={Elsevier}
+}</t>
+  </si>
+  <si>
+    <t>v31n1a05</t>
+  </si>
+  <si>
+    <t>Modelo de conocimiento</t>
+  </si>
+  <si>
+    <t>http://www.scielo.org.co/pdf/rib/v31n1/v31n1a05.pdf</t>
+  </si>
+  <si>
+    <t>https://repository.eafit.edu.co/bitstream/handle/10784/71/9588173736.pdf;sequence=1</t>
+  </si>
+  <si>
+    <t>Modelo de conocimiento ingeniero de conocimiento</t>
+  </si>
+  <si>
+    <t>Tesis Andres</t>
+  </si>
+  <si>
+    <t>http://eventos.saber.ula.ve/eventos/getFile.py/access?contribId=37&amp;sessionId=25&amp;resId=1&amp;materialId=paper&amp;confId=47</t>
+  </si>
+  <si>
+    <t>Modelo híbrido
+edgar chacón</t>
+  </si>
+  <si>
+    <t>CLCA_ifac_conf</t>
+  </si>
+  <si>
+    <t>http://amca.mx/memorias/amca2007/articulos/amca53.pdf?s_datos_Tema=3</t>
+  </si>
+  <si>
+    <t>sistemas hibridos</t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/pdf/849/84917310002.pdf</t>
+  </si>
+  <si>
+    <t>redes de petri</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/221922078_Online_Production_Scheduling_and_Re-Scheduling_in_Autonomous_Intelligent_Distributed_Environments</t>
+  </si>
+  <si>
+    <t>@inbook{inbook,
+author = {Chac�n, Edgar and Cardillo, Juan and Chac�n, Rafael and Zapata, Germán},
+year = {2012},
+month = {01},
+pages = {},
+title = {Online Production Scheduling and Re-Scheduling in Autonomous, Intelligent Distributed Environments},
+isbn = {978-953-307-935-6},
+doi = {10.5772/25933}
+}</t>
+  </si>
+  <si>
+    <t>Modelos de producción
+Holones
+Cadena de Valor</t>
+  </si>
+  <si>
+    <t>rtfiuz … 00002</t>
+  </si>
+  <si>
+    <t>Holones</t>
+  </si>
+  <si>
+    <t>http://ve.scielo.org/scielo.php?script=sci_arttext&amp;pid=S0254-07702009000100002</t>
   </si>
 </sst>
 </file>
@@ -2404,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,7 +2931,9 @@
       <c r="F19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.25">
@@ -3389,7 +3497,7 @@
       <c r="G46" s="19"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:9" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="21" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -3401,7 +3509,9 @@
       <c r="E47" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="19"/>
+      <c r="F47" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="G47" s="19"/>
       <c r="H47" s="22"/>
     </row>
@@ -4412,51 +4522,75 @@
       </c>
       <c r="H100" s="22"/>
     </row>
-    <row r="101" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="21" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="C101" s="19" t="s">
+        <v>304</v>
+      </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
+      <c r="F101" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>306</v>
+      </c>
       <c r="H101" s="22"/>
     </row>
-    <row r="102" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="21" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
+      <c r="C102" s="19" t="s">
+        <v>307</v>
+      </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
+      <c r="F102" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="G102" s="31" t="s">
+        <v>308</v>
+      </c>
       <c r="H102" s="22"/>
     </row>
-    <row r="103" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
+      <c r="C103" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>310</v>
+      </c>
       <c r="G103" s="19"/>
       <c r="H103" s="22"/>
     </row>
-    <row r="104" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
+      <c r="C104" s="19" t="s">
+        <v>312</v>
+      </c>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
+      <c r="F104" s="19" t="s">
+        <v>313</v>
+      </c>
       <c r="G104" s="19"/>
       <c r="H104" s="22"/>
     </row>
@@ -4468,68 +4602,98 @@
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
+      <c r="F105" s="19" t="s">
+        <v>314</v>
+      </c>
       <c r="G105" s="19"/>
       <c r="H105" s="22"/>
     </row>
-    <row r="106" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
+      <c r="C106" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>316</v>
+      </c>
       <c r="G106" s="19"/>
       <c r="H106" s="22"/>
     </row>
-    <row r="107" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
+      <c r="C107" s="19" t="s">
+        <v>318</v>
+      </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
+      <c r="F107" s="19" t="s">
+        <v>319</v>
+      </c>
       <c r="G107" s="19"/>
       <c r="H107" s="22"/>
     </row>
-    <row r="108" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>107</v>
       </c>
       <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
+      <c r="C108" s="19" t="s">
+        <v>320</v>
+      </c>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
+      <c r="F108" s="19" t="s">
+        <v>321</v>
+      </c>
       <c r="G108" s="19"/>
       <c r="H108" s="22"/>
     </row>
-    <row r="109" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="21" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
+      <c r="C109" s="19" t="s">
+        <v>322</v>
+      </c>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
+      <c r="F109" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>323</v>
+      </c>
       <c r="H109" s="22"/>
     </row>
-    <row r="110" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>109</v>
       </c>
       <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
+      <c r="C110" s="19" t="s">
+        <v>327</v>
+      </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
+      <c r="F110" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>325</v>
+      </c>
       <c r="H110" s="22"/>
     </row>
     <row r="111" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -2511,7 +2511,7 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="7965" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="7905" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="331">
   <si>
     <t>Fecha</t>
   </si>
@@ -1859,6 +1859,23 @@
   </si>
   <si>
     <t>http://ve.scielo.org/scielo.php?script=sci_arttext&amp;pid=S0254-07702009000100002</t>
+  </si>
+  <si>
+    <t>@book{book,
+author = {Mella, Piero},
+year = {2009},
+month = {01},
+pages = {},
+title = {The Holonic Revolution Holons, Holarchies and Holonic Networks. The Ghost in the Production Machine},
+isbn = {978-88-96764-00-8},
+doi = {10.13140/2.1.1954.5922}
+}</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/270338868_The_Holonic_Revolution_Holons_Holarchies_and_Holonic_Networks_The_Ghost_in_the_Production_Machine</t>
+  </si>
+  <si>
+    <t>HMS</t>
   </si>
 </sst>
 </file>
@@ -2510,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4696,16 +4713,26 @@
       </c>
       <c r="H110" s="22"/>
     </row>
-    <row r="111" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="21" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>110</v>
       </c>
       <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
+      <c r="C111" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>328</v>
+      </c>
       <c r="H111" s="22"/>
     </row>
     <row r="112" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -2527,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="333">
   <si>
     <t>Fecha</t>
   </si>
@@ -1876,6 +1876,12 @@
   </si>
   <si>
     <t>HMS</t>
+  </si>
+  <si>
+    <t>https://www.murfreesborotn.gov/1583/Journey-to-The-Tap-How-Water-Gets-to-You</t>
+  </si>
+  <si>
+    <t>proceso agua</t>
   </si>
 </sst>
 </file>
@@ -2525,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4735,15 +4741,21 @@
       </c>
       <c r="H111" s="22"/>
     </row>
-    <row r="112" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>111</v>
       </c>
       <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
+      <c r="C112" s="19" t="s">
+        <v>331</v>
+      </c>
       <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
+      <c r="E112" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>332</v>
+      </c>
       <c r="G112" s="19"/>
       <c r="H112" s="22"/>
     </row>
@@ -4770,6 +4782,306 @@
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
       <c r="H114" s="22"/>
+    </row>
+    <row r="115" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7">
+        <v>114</v>
+      </c>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="22"/>
+    </row>
+    <row r="116" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="22"/>
+    </row>
+    <row r="117" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
+        <v>116</v>
+      </c>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="22"/>
+    </row>
+    <row r="118" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7">
+        <v>117</v>
+      </c>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="22"/>
+    </row>
+    <row r="119" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7">
+        <v>118</v>
+      </c>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="22"/>
+    </row>
+    <row r="120" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7">
+        <v>119</v>
+      </c>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="22"/>
+    </row>
+    <row r="121" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
+        <v>120</v>
+      </c>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="22"/>
+    </row>
+    <row r="122" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="22"/>
+    </row>
+    <row r="123" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7">
+        <v>122</v>
+      </c>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="22"/>
+    </row>
+    <row r="124" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="22"/>
+    </row>
+    <row r="125" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="7">
+        <v>124</v>
+      </c>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="22"/>
+    </row>
+    <row r="126" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="22"/>
+    </row>
+    <row r="127" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="7">
+        <v>126</v>
+      </c>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="22"/>
+    </row>
+    <row r="128" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="7">
+        <v>127</v>
+      </c>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="22"/>
+    </row>
+    <row r="129" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7">
+        <v>128</v>
+      </c>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="22"/>
+    </row>
+    <row r="130" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7">
+        <v>129</v>
+      </c>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="22"/>
+    </row>
+    <row r="131" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7">
+        <v>130</v>
+      </c>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="22"/>
+    </row>
+    <row r="132" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7">
+        <v>131</v>
+      </c>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="22"/>
+    </row>
+    <row r="133" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7">
+        <v>132</v>
+      </c>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="22"/>
+    </row>
+    <row r="134" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="7">
+        <v>133</v>
+      </c>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="22"/>
+    </row>
+    <row r="135" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="7">
+        <v>134</v>
+      </c>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="22"/>
+    </row>
+    <row r="136" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7">
+        <v>135</v>
+      </c>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="22"/>
+    </row>
+    <row r="137" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7">
+        <v>136</v>
+      </c>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="22"/>
+    </row>
+    <row r="138" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="22"/>
+    </row>
+    <row r="139" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="7">
+        <v>138</v>
+      </c>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -2533,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:A139"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="335">
   <si>
     <t>Fecha</t>
   </si>
@@ -1882,6 +1882,12 @@
   </si>
   <si>
     <t>proceso agua</t>
+  </si>
+  <si>
+    <t>http://www.unicauca.edu.co/ai/publicaciones/Principios_de_programacion.pdf</t>
+  </si>
+  <si>
+    <t>PRINCIPIOS DE PROGRAMACIÓN Y CONTROL DE LA PRODUCCIÓN BAJO UN ENFOQUE HOLONICO</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2161,6 +2167,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2533,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4759,15 +4768,19 @@
       <c r="G112" s="19"/>
       <c r="H112" s="22"/>
     </row>
-    <row r="113" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="21" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>112</v>
       </c>
       <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
+      <c r="C113" s="19" t="s">
+        <v>333</v>
+      </c>
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
+      <c r="F113" s="32" t="s">
+        <v>334</v>
+      </c>
       <c r="G113" s="19"/>
       <c r="H113" s="22"/>
     </row>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="340">
   <si>
     <t>Fecha</t>
   </si>
@@ -1888,6 +1888,21 @@
   </si>
   <si>
     <t>PRINCIPIOS DE PROGRAMACIÓN Y CONTROL DE LA PRODUCCIÓN BAJO UN ENFOQUE HOLONICO</t>
+  </si>
+  <si>
+    <t>https://es.slideshare.net/rafadavimendez/canaleta-parshall</t>
+  </si>
+  <si>
+    <t>Parshall</t>
+  </si>
+  <si>
+    <t>https://cdn.website-editor.net/235f540e72e5455f8018b8ee78c5bb6e/files/uploaded/INFO%2520caudal%2520FCP%2520gral.pdf</t>
+  </si>
+  <si>
+    <t>https://repositorio.sena.edu.co/sitios/calidad_del_agua/operacion_potabilizacion/index.html#</t>
+  </si>
+  <si>
+    <t>Operación y mantenimiento de plantas</t>
   </si>
 </sst>
 </file>
@@ -2542,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,7 +2771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2780,7 +2795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2800,7 +2815,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4784,39 +4799,51 @@
       <c r="G113" s="19"/>
       <c r="H113" s="22"/>
     </row>
-    <row r="114" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>113</v>
       </c>
       <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
+      <c r="C114" s="19" t="s">
+        <v>335</v>
+      </c>
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
+      <c r="F114" s="19" t="s">
+        <v>336</v>
+      </c>
       <c r="G114" s="19"/>
       <c r="H114" s="22"/>
     </row>
-    <row r="115" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>114</v>
       </c>
       <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
+      <c r="C115" s="19" t="s">
+        <v>337</v>
+      </c>
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
+      <c r="F115" s="19" t="s">
+        <v>336</v>
+      </c>
       <c r="G115" s="19"/>
       <c r="H115" s="22"/>
     </row>
-    <row r="116" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>115</v>
       </c>
       <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
+      <c r="C116" s="19" t="s">
+        <v>338</v>
+      </c>
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
+      <c r="F116" s="19" t="s">
+        <v>339</v>
+      </c>
       <c r="G116" s="19"/>
       <c r="H116" s="22"/>
     </row>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="342">
   <si>
     <t>Fecha</t>
   </si>
@@ -1903,6 +1903,12 @@
   </si>
   <si>
     <t>Operación y mantenimiento de plantas</t>
+  </si>
+  <si>
+    <t>http://www.tratamientodelagua.com.mx/sedimentadores-lamelares/</t>
+  </si>
+  <si>
+    <t>sedimentador laminar</t>
   </si>
 </sst>
 </file>
@@ -2557,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4847,15 +4853,21 @@
       <c r="G116" s="19"/>
       <c r="H116" s="22"/>
     </row>
-    <row r="117" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>116</v>
       </c>
       <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
+      <c r="C117" s="19" t="s">
+        <v>340</v>
+      </c>
       <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
+      <c r="E117" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>341</v>
+      </c>
       <c r="G117" s="19"/>
       <c r="H117" s="22"/>
     </row>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -2563,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="348">
   <si>
     <t>Fecha</t>
   </si>
@@ -899,16 +899,10 @@
     <t>trabalhoR</t>
   </si>
   <si>
-    <t>Modelo de tanques, diferentes tipologías de representación de tanques</t>
-  </si>
-  <si>
     <t>https://www.researchgate.net/publication/328410385_IAHR_AIIH_XXVIII_CONGRESO_LATINOAMERICANO_DE_HIDRAULICA_BUENOS_AIRES_ARGENTINA_SEPTIEMBRE_DE_2018_SIMULACION_DE_LA_OPERACION_DE_EMBALSES_MEDIANTE_EPANET_20</t>
   </si>
   <si>
     <t>Luis-Wilmer-Nieves</t>
-  </si>
-  <si>
-    <t>Modelo de embalses, aliviadero, etc. Prof luis mora</t>
   </si>
   <si>
     <t>http://www.bvsde.ops-oms.org/tecapro/documentos/agua/158esp-diseno-desare.pdf</t>
@@ -1909,6 +1903,30 @@
   </si>
   <si>
     <t>sedimentador laminar</t>
+  </si>
+  <si>
+    <t>Modelo de tanques, diferentes tipologías de representación de tanques con epanet</t>
+  </si>
+  <si>
+    <t>Modelo de embalses, aliviadero, etc. Prof luis mora. Epanet</t>
+  </si>
+  <si>
+    <t>nueve</t>
+  </si>
+  <si>
+    <t>FILTROS HERMOSO</t>
+  </si>
+  <si>
+    <t>http://www.ingenieroambiental.com/4014/nueve.pdf</t>
+  </si>
+  <si>
+    <t>http://dspace.ucuenca.edu.ec/bitstream/123456789/23369/1/tesis%20pdf.pdf</t>
+  </si>
+  <si>
+    <t>Velocidad de filtración, carrera de filtros, pruebas en campo, etc</t>
+  </si>
+  <si>
+    <t>La velocidad con que pasa el agua por el medio filtrante se mide como tasa de filtración o carga superficial (cociente entre el caudal q y el area filtrante)</t>
   </si>
 </sst>
 </file>
@@ -2563,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,7 +2592,7 @@
     <col min="3" max="3" width="36.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="51.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="81.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
@@ -2985,7 +3003,7 @@
         <v>46</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -3563,7 +3581,7 @@
         <v>50</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="22"/>
@@ -3747,7 +3765,7 @@
         <v>9</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>178</v>
+        <v>340</v>
       </c>
       <c r="G57" s="19"/>
       <c r="H57" s="22"/>
@@ -3758,16 +3776,16 @@
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="19" t="s">
         <v>179</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>180</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="G58" s="19"/>
       <c r="H58" s="22"/>
@@ -3778,16 +3796,16 @@
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G59" s="19"/>
     </row>
@@ -3797,18 +3815,18 @@
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G60" s="19"/>
       <c r="H60" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="21" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3817,20 +3835,20 @@
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>192</v>
-      </c>
       <c r="F61" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G61" s="19"/>
       <c r="H61" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="21" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3839,16 +3857,16 @@
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G62" s="19"/>
       <c r="H62" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="21" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3857,16 +3875,16 @@
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>199</v>
-      </c>
       <c r="F63" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G63" s="19"/>
       <c r="H63" s="22"/>
@@ -3877,20 +3895,20 @@
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G64" s="19"/>
       <c r="H64" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3899,19 +3917,19 @@
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F65" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G65" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>207</v>
       </c>
       <c r="H65" s="22"/>
     </row>
@@ -3921,15 +3939,15 @@
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H66" s="22"/>
     </row>
@@ -3939,17 +3957,17 @@
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H67" s="22"/>
     </row>
@@ -3962,10 +3980,10 @@
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H68" s="22"/>
     </row>
@@ -3978,10 +3996,10 @@
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H69" s="22"/>
     </row>
@@ -3994,10 +4012,10 @@
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H70" s="22"/>
     </row>
@@ -4008,13 +4026,13 @@
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G71" s="19"/>
       <c r="H71" s="22"/>
@@ -4025,16 +4043,16 @@
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D72" s="19" t="s">
-        <v>223</v>
-      </c>
       <c r="E72" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G72" s="19"/>
       <c r="H72" s="22"/>
@@ -4045,16 +4063,16 @@
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F73" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="G73" s="19"/>
       <c r="H73" s="22"/>
@@ -4065,16 +4083,16 @@
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D74" s="19">
         <v>41782666</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G74" s="19"/>
       <c r="H74" s="22"/>
@@ -4085,16 +4103,16 @@
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D75" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F75" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="G75" s="19"/>
       <c r="H75" s="22"/>
@@ -4105,16 +4123,16 @@
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" s="19" t="s">
         <v>232</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>234</v>
       </c>
       <c r="G76" s="19"/>
       <c r="H76" s="22"/>
@@ -4125,16 +4143,16 @@
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>237</v>
       </c>
       <c r="G77" s="19"/>
       <c r="H77" s="22"/>
@@ -4145,16 +4163,16 @@
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G78" s="19"/>
       <c r="H78" s="22"/>
@@ -4165,16 +4183,16 @@
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D79" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F79" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>243</v>
       </c>
       <c r="G79" s="19"/>
       <c r="H79" s="22"/>
@@ -4185,16 +4203,16 @@
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G80" s="19"/>
       <c r="H80" s="22"/>
@@ -4205,19 +4223,19 @@
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H81" s="22"/>
     </row>
@@ -4227,20 +4245,20 @@
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F82" s="19" t="s">
         <v>251</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>253</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4249,16 +4267,16 @@
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="22"/>
@@ -4269,19 +4287,19 @@
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F84" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G84" s="19" t="s">
         <v>260</v>
-      </c>
-      <c r="G84" s="19" t="s">
-        <v>262</v>
       </c>
       <c r="H84" s="22"/>
     </row>
@@ -4291,12 +4309,12 @@
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G85" s="19"/>
       <c r="H85" s="22"/>
@@ -4307,12 +4325,12 @@
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G86" s="19"/>
       <c r="H86" s="22"/>
@@ -4323,16 +4341,16 @@
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G87" s="19"/>
       <c r="H87" s="22"/>
@@ -4343,16 +4361,16 @@
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G88" s="19"/>
       <c r="H88" s="22"/>
@@ -4363,12 +4381,12 @@
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G89" s="19"/>
       <c r="H89" s="22"/>
@@ -4379,12 +4397,12 @@
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G90" s="19"/>
       <c r="H90" s="22"/>
@@ -4395,16 +4413,16 @@
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G91" s="19"/>
       <c r="H91" s="22"/>
@@ -4415,12 +4433,12 @@
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G92" s="19"/>
       <c r="H92" s="22"/>
@@ -4431,12 +4449,12 @@
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G93" s="19"/>
       <c r="H93" s="22"/>
@@ -4447,19 +4465,19 @@
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F94" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="G94" s="19" t="s">
         <v>281</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G94" s="19" t="s">
-        <v>283</v>
       </c>
       <c r="H94" s="22"/>
     </row>
@@ -4469,16 +4487,16 @@
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G95" s="19"/>
       <c r="H95" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4487,12 +4505,12 @@
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G96" s="19"/>
       <c r="H96" s="22"/>
@@ -4503,14 +4521,14 @@
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G97" s="19"/>
       <c r="H97" s="22"/>
@@ -4520,18 +4538,18 @@
         <v>97</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
       <c r="F98" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H98" s="22"/>
     </row>
@@ -4540,15 +4558,15 @@
         <v>98</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="22"/>
@@ -4559,19 +4577,19 @@
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H100" s="22"/>
     </row>
@@ -4581,15 +4599,15 @@
       </c>
       <c r="B101" s="19"/>
       <c r="C101" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
       <c r="F101" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H101" s="22"/>
     </row>
@@ -4599,15 +4617,15 @@
       </c>
       <c r="B102" s="19"/>
       <c r="C102" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
       <c r="F102" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G102" s="31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H102" s="22"/>
     </row>
@@ -4617,16 +4635,16 @@
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G103" s="19"/>
       <c r="H103" s="22"/>
@@ -4637,12 +4655,12 @@
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G104" s="19"/>
       <c r="H104" s="22"/>
@@ -4656,7 +4674,7 @@
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G105" s="19"/>
       <c r="H105" s="22"/>
@@ -4667,16 +4685,16 @@
       </c>
       <c r="B106" s="19"/>
       <c r="C106" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D106" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="D106" s="19" t="s">
-        <v>317</v>
-      </c>
       <c r="E106" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G106" s="19"/>
       <c r="H106" s="22"/>
@@ -4687,12 +4705,12 @@
       </c>
       <c r="B107" s="19"/>
       <c r="C107" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G107" s="19"/>
       <c r="H107" s="22"/>
@@ -4703,12 +4721,12 @@
       </c>
       <c r="B108" s="19"/>
       <c r="C108" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
       <c r="F108" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G108" s="19"/>
       <c r="H108" s="22"/>
@@ -4719,15 +4737,15 @@
       </c>
       <c r="B109" s="19"/>
       <c r="C109" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
       <c r="F109" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H109" s="22"/>
     </row>
@@ -4737,15 +4755,15 @@
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
       <c r="F110" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H110" s="22"/>
     </row>
@@ -4755,19 +4773,19 @@
       </c>
       <c r="B111" s="19"/>
       <c r="C111" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F111" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G111" s="31" t="s">
         <v>326</v>
-      </c>
-      <c r="G111" s="31" t="s">
-        <v>328</v>
       </c>
       <c r="H111" s="22"/>
     </row>
@@ -4777,14 +4795,14 @@
       </c>
       <c r="B112" s="19"/>
       <c r="C112" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D112" s="19"/>
       <c r="E112" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G112" s="19"/>
       <c r="H112" s="22"/>
@@ -4795,12 +4813,12 @@
       </c>
       <c r="B113" s="19"/>
       <c r="C113" s="19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
       <c r="F113" s="32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G113" s="19"/>
       <c r="H113" s="22"/>
@@ -4811,12 +4829,12 @@
       </c>
       <c r="B114" s="19"/>
       <c r="C114" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
       <c r="F114" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G114" s="19"/>
       <c r="H114" s="22"/>
@@ -4827,12 +4845,12 @@
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G115" s="19"/>
       <c r="H115" s="22"/>
@@ -4843,12 +4861,12 @@
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G116" s="19"/>
       <c r="H116" s="22"/>
@@ -4859,51 +4877,67 @@
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G117" s="19"/>
       <c r="H117" s="22"/>
     </row>
-    <row r="118" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>117</v>
       </c>
       <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
+      <c r="C118" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>343</v>
+      </c>
       <c r="G118" s="19"/>
       <c r="H118" s="22"/>
     </row>
-    <row r="119" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>118</v>
       </c>
       <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
+      <c r="C119" s="19" t="s">
+        <v>345</v>
+      </c>
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
+      <c r="F119" s="19" t="s">
+        <v>346</v>
+      </c>
       <c r="G119" s="19"/>
       <c r="H119" s="22"/>
     </row>
-    <row r="120" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="21" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>119</v>
       </c>
       <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
+      <c r="C120" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
+      <c r="F120" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="G120" s="19"/>
       <c r="H120" s="22"/>
     </row>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="7905" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="16380" windowHeight="7785" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="356">
   <si>
     <t>Fecha</t>
   </si>
@@ -1927,6 +1927,30 @@
   </si>
   <si>
     <t>La velocidad con que pasa el agua por el medio filtrante se mide como tasa de filtración o carga superficial (cociente entre el caudal q y el area filtrante)</t>
+  </si>
+  <si>
+    <t>http://sci-hub.tw/10.2166/9781780402321</t>
+  </si>
+  <si>
+    <t>modelo de dosis libro</t>
+  </si>
+  <si>
+    <t>BRATBY, J., 2006. Coagulation and flocculation in water and wastewater treatment. 2da Edició. S.l.: IWA Publishing.</t>
+  </si>
+  <si>
+    <t>https://ascelibrary.org/doi/abs/10.1061/(ASCE)0733-9372(1991)117:3(308)</t>
+  </si>
+  <si>
+    <t>por que usar regresion modelo dosis</t>
+  </si>
+  <si>
+    <t>German Zapata</t>
+  </si>
+  <si>
+    <t>Procesos de produccion - condiciones del proceso degradado falla</t>
+  </si>
+  <si>
+    <t>Manual epanet</t>
   </si>
 </sst>
 </file>
@@ -2581,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,7 +2843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3283,7 +3307,7 @@
       </c>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -3568,7 +3592,7 @@
       <c r="G46" s="19"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:9" s="21" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -4037,7 +4061,7 @@
       <c r="G71" s="19"/>
       <c r="H71" s="22"/>
     </row>
-    <row r="72" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -4097,7 +4121,7 @@
       <c r="G74" s="19"/>
       <c r="H74" s="22"/>
     </row>
-    <row r="75" spans="1:8" s="21" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="21" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -4649,7 +4673,7 @@
       <c r="G103" s="19"/>
       <c r="H103" s="22"/>
     </row>
-    <row r="104" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -4807,7 +4831,7 @@
       <c r="G112" s="19"/>
       <c r="H112" s="22"/>
     </row>
-    <row r="113" spans="1:8" s="21" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="21" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -4909,7 +4933,7 @@
       <c r="G118" s="19"/>
       <c r="H118" s="22"/>
     </row>
-    <row r="119" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>118</v>
       </c>
@@ -4941,39 +4965,55 @@
       <c r="G120" s="19"/>
       <c r="H120" s="22"/>
     </row>
-    <row r="121" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>120</v>
       </c>
       <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
+      <c r="C121" s="19" t="s">
+        <v>348</v>
+      </c>
       <c r="D121" s="19"/>
       <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
+      <c r="F121" s="19" t="s">
+        <v>349</v>
+      </c>
       <c r="G121" s="19"/>
-      <c r="H121" s="22"/>
-    </row>
-    <row r="122" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H121" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>121</v>
       </c>
       <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
+      <c r="C122" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
+      <c r="F122" s="19" t="s">
+        <v>352</v>
+      </c>
       <c r="G122" s="19"/>
       <c r="H122" s="22"/>
     </row>
-    <row r="123" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>122</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
+      <c r="D123" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>354</v>
+      </c>
       <c r="G123" s="19"/>
       <c r="H123" s="22"/>
     </row>
@@ -4983,7 +5023,9 @@
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
+      <c r="D124" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
       <c r="G124" s="19"/>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="361">
   <si>
     <t>Fecha</t>
   </si>
@@ -1951,6 +1951,21 @@
   </si>
   <si>
     <t>Manual epanet</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/306084085_Optimization_of_Drinking_Water_Treatment_Process_by_Modeling_the_Aluminum_Sulfate_Dose</t>
+  </si>
+  <si>
+    <t>modelo dosis</t>
+  </si>
+  <si>
+    <t>https://www.scientificbulletin.upb.ro/rev_docs_arhiva/full66817.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ijesd.org/vol7/797-CD0221.pdf</t>
+  </si>
+  <si>
+    <t>modelo dosis neural net</t>
   </si>
 </sst>
 </file>
@@ -2605,8 +2620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,39 +5046,51 @@
       <c r="G124" s="19"/>
       <c r="H124" s="22"/>
     </row>
-    <row r="125" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>124</v>
       </c>
       <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
+      <c r="C125" s="19" t="s">
+        <v>356</v>
+      </c>
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
+      <c r="F125" s="19" t="s">
+        <v>357</v>
+      </c>
       <c r="G125" s="19"/>
       <c r="H125" s="22"/>
     </row>
-    <row r="126" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>125</v>
       </c>
       <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
+      <c r="C126" s="19" t="s">
+        <v>358</v>
+      </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
+      <c r="F126" s="19" t="s">
+        <v>357</v>
+      </c>
       <c r="G126" s="19"/>
       <c r="H126" s="22"/>
     </row>
-    <row r="127" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>126</v>
       </c>
       <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
+      <c r="C127" s="19" t="s">
+        <v>359</v>
+      </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
+      <c r="F127" s="19" t="s">
+        <v>360</v>
+      </c>
       <c r="G127" s="19"/>
       <c r="H127" s="22"/>
     </row>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="379">
   <si>
     <t>Fecha</t>
   </si>
@@ -1966,6 +1966,81 @@
   </si>
   <si>
     <t>modelo dosis neural net</t>
+  </si>
+  <si>
+    <t>https://prodindu.wordpress.com/revolucion-industrial-4-0/</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>cuarta-revoluc</t>
+  </si>
+  <si>
+    <t>http://sci-hub.tw/https://doi.org/10.1002/j.1551-8833.2006.tb07609.x</t>
+  </si>
+  <si>
+    <t>water trough the years</t>
+  </si>
+  <si>
+    <t>pericles_....3398</t>
+  </si>
+  <si>
+    <t>@article{article,
+author = {Mays, Larry and Koutsoyiannis, Demetris and Angelakis, A.},
+year = {2007},
+month = {03},
+pages = {},
+title = {A brief history of urban water supply in antiquity},
+volume = {7},
+journal = {Water Science &amp; Technology: Water Supply},
+doi = {10.2166/ws.2007.001}
+}</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/228350050_A_brief_history_of_urban_water_supply_in_antiquity</t>
+  </si>
+  <si>
+    <t>Historia del agua antigua grecia</t>
+  </si>
+  <si>
+    <t>39309-Texto del artículo-48399-2-10-20120628</t>
+  </si>
+  <si>
+    <t>Aguaa evolucion plantas tratamiento</t>
+  </si>
+  <si>
+    <t>Lofrano , G. y Brown , J. (2010). Wastewater management through the ages: A
+history of mankind, Science of the Total Environment, 408, 5254 – 5264.</t>
+  </si>
+  <si>
+    <t>@article{article,
+author = {Lofrano, Giusy and Brown, Jeanette},
+year = {2010},
+month = {10},
+pages = {5254-64},
+title = {Wastewater Management through the Ages: A History of Mankind},
+volume = {408},
+journal = {The Science of the total environment},
+doi = {10.1016/j.scitotenv.2010.07.062}
+}</t>
+  </si>
+  <si>
+    <t>Cooper , P.F. (2007). Historical aspects of wastewater treatment. In: Lens, P., Seeman,
+G., Lettinga, G. (eds). Decentralised sanitation and reuse: concepts, systems
+and implementation. IWA Publishing.</t>
+  </si>
+  <si>
+    <t>http://www.bvsde.paho.org/bvsacd/leeds/cooper.pdf</t>
+  </si>
+  <si>
+    <t>toda la evolucion de agua</t>
+  </si>
+  <si>
+    <t>UPS-CT005251</t>
+  </si>
+  <si>
+    <t>Mariela redes etc</t>
   </si>
 </sst>
 </file>
@@ -2620,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5094,65 +5169,99 @@
       <c r="G127" s="19"/>
       <c r="H127" s="22"/>
     </row>
-    <row r="128" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>127</v>
       </c>
       <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
+      <c r="C128" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>362</v>
+      </c>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
       <c r="H128" s="22"/>
     </row>
-    <row r="129" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>128</v>
       </c>
       <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
+      <c r="C129" s="19" t="s">
+        <v>364</v>
+      </c>
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
+      <c r="F129" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="G129" s="19" t="s">
+        <v>366</v>
+      </c>
       <c r="H129" s="22"/>
     </row>
-    <row r="130" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="21" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>129</v>
       </c>
       <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
+      <c r="C130" s="19" t="s">
+        <v>368</v>
+      </c>
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
+      <c r="F130" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="G130" s="31" t="s">
+        <v>367</v>
+      </c>
       <c r="H130" s="22"/>
     </row>
-    <row r="131" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="21" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>130</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="22"/>
-    </row>
-    <row r="132" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="G131" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="H131" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>131</v>
       </c>
       <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
+      <c r="C132" s="19" t="s">
+        <v>375</v>
+      </c>
       <c r="D132" s="19"/>
       <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
+      <c r="F132" s="19" t="s">
+        <v>376</v>
+      </c>
       <c r="G132" s="19"/>
-      <c r="H132" s="22"/>
+      <c r="H132" s="22" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="133" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
@@ -5160,9 +5269,15 @@
       </c>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
+      <c r="D133" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>378</v>
+      </c>
       <c r="G133" s="19"/>
       <c r="H133" s="22"/>
     </row>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="387">
   <si>
     <t>Fecha</t>
   </si>
@@ -2041,6 +2041,30 @@
   </si>
   <si>
     <t>Mariela redes etc</t>
+  </si>
+  <si>
+    <t>797-CD0221</t>
+  </si>
+  <si>
+    <t>full66817</t>
+  </si>
+  <si>
+    <t>http://simposioestadistica.unal.edu.co/fileadmin/content/eventos/simposioestadistica/documentos/memorias/Memorias_2017/Comunicaciones/Estadistica_Ambiental/3._Caicedo_Ballesteros_Olaya.pdf</t>
+  </si>
+  <si>
+    <t>Modelo dosis gaussiano</t>
+  </si>
+  <si>
+    <t>AHOGADOS EN LA INDOLENCIA</t>
+  </si>
+  <si>
+    <t>https://transparencia.org.ve/wp-content/uploads/2018/11/EPE-II-Sector-Agua.pdf</t>
+  </si>
+  <si>
+    <t>http://www.bvsde.paho.org/bvsacd/scan/002320/002320-05a.pdf</t>
+  </si>
+  <si>
+    <t>Diseño de tanque sedimentacion. Conexión entre floculador y sedimentador</t>
   </si>
 </sst>
 </file>
@@ -2693,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5145,7 +5169,9 @@
       <c r="C126" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="D126" s="19"/>
+      <c r="D126" s="19" t="s">
+        <v>380</v>
+      </c>
       <c r="E126" s="19"/>
       <c r="F126" s="19" t="s">
         <v>357</v>
@@ -5161,7 +5187,9 @@
       <c r="C127" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="D127" s="19"/>
+      <c r="D127" s="19" t="s">
+        <v>379</v>
+      </c>
       <c r="E127" s="19"/>
       <c r="F127" s="19" t="s">
         <v>360</v>
@@ -5281,39 +5309,51 @@
       <c r="G133" s="19"/>
       <c r="H133" s="22"/>
     </row>
-    <row r="134" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="21" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>133</v>
       </c>
       <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
+      <c r="C134" s="19" t="s">
+        <v>381</v>
+      </c>
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
+      <c r="F134" s="19" t="s">
+        <v>382</v>
+      </c>
       <c r="G134" s="19"/>
       <c r="H134" s="22"/>
     </row>
-    <row r="135" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>134</v>
       </c>
       <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
+      <c r="C135" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
+      <c r="F135" s="19" t="s">
+        <v>383</v>
+      </c>
       <c r="G135" s="19"/>
       <c r="H135" s="22"/>
     </row>
-    <row r="136" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>135</v>
       </c>
       <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
+      <c r="C136" s="19" t="s">
+        <v>385</v>
+      </c>
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
+      <c r="F136" s="19" t="s">
+        <v>386</v>
+      </c>
       <c r="G136" s="19"/>
       <c r="H136" s="22"/>
     </row>
@@ -5352,6 +5392,114 @@
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
       <c r="H139" s="22"/>
+    </row>
+    <row r="140" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="7">
+        <v>139</v>
+      </c>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="22"/>
+    </row>
+    <row r="141" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7">
+        <v>140</v>
+      </c>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="22"/>
+    </row>
+    <row r="142" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="7">
+        <v>141</v>
+      </c>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="22"/>
+    </row>
+    <row r="143" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="7">
+        <v>142</v>
+      </c>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="22"/>
+    </row>
+    <row r="144" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="22"/>
+    </row>
+    <row r="145" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="7">
+        <v>144</v>
+      </c>
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="22"/>
+    </row>
+    <row r="146" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="7">
+        <v>145</v>
+      </c>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="22"/>
+    </row>
+    <row r="147" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="7">
+        <v>146</v>
+      </c>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="22"/>
+    </row>
+    <row r="148" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="7">
+        <v>147</v>
+      </c>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -2719,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="390">
   <si>
     <t>Fecha</t>
   </si>
@@ -2065,6 +2065,15 @@
   </si>
   <si>
     <t>Diseño de tanque sedimentacion. Conexión entre floculador y sedimentador</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/home/Ysis/Material?preview=Cyber-physicalsystem_Monostori_et_al_2016.pdf</t>
+  </si>
+  <si>
+    <t>imagen scf</t>
+  </si>
+  <si>
+    <t>Lee J, Bagheri B, Kao H-A (2015) A Cyber-Physical Systems architecture for Industry 4.0-based manufacturing systems.Manufacturing Letters3:18-23</t>
   </si>
 </sst>
 </file>
@@ -2719,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134:H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5357,17 +5366,25 @@
       <c r="G136" s="19"/>
       <c r="H136" s="22"/>
     </row>
-    <row r="137" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>136</v>
       </c>
       <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
+      <c r="C137" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
+      <c r="E137" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>388</v>
+      </c>
       <c r="G137" s="19"/>
-      <c r="H137" s="22"/>
+      <c r="H137" s="21" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="138" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7">

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="394">
   <si>
     <t>Fecha</t>
   </si>
@@ -1024,87 +1024,6 @@
     <t>citation-9304</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Hugh </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Boyes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hallaq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>, Joe Cunningham, and Tim Watson. The industrial internet of things (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>iiot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>): An analysis framework. Computers in Industry</t>
-    </r>
-  </si>
-  <si>
     <t>IIoT</t>
   </si>
   <si>
@@ -2075,12 +1994,105 @@
   <si>
     <t>Lee J, Bagheri B, Kao H-A (2015) A Cyber-Physical Systems architecture for Industry 4.0-based manufacturing systems.Manufacturing Letters3:18-23</t>
   </si>
+  <si>
+    <t>https://www.hitachi.com/businesses/infrastructure/product_site/water_environment/water_supply/index.html</t>
+  </si>
+  <si>
+    <t>hidrological (imágenes nuevas)</t>
+  </si>
+  <si>
+    <t>http://www.fao.org/3/T0848S/t0848s06.htm</t>
+  </si>
+  <si>
+    <t>parshall3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hugh </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Boyes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hallaq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Joe Cunningham, and Tim Watson. The industrial internet of things (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>iiot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>): An analysis framework. Computers in Industry 2018</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2142,6 +2154,14 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2261,7 +2281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2356,6 +2376,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2728,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H134" sqref="H134:H135"/>
+    <sheetView tabSelected="1" topLeftCell="B101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3150,7 +3173,7 @@
         <v>46</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -3728,7 +3751,7 @@
         <v>50</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="22"/>
@@ -3912,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G57" s="19"/>
       <c r="H57" s="22"/>
@@ -3932,7 +3955,7 @@
         <v>9</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G58" s="19"/>
       <c r="H58" s="22"/>
@@ -4127,10 +4150,10 @@
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>212</v>
+        <v>393</v>
       </c>
       <c r="H68" s="22"/>
     </row>
@@ -4143,10 +4166,10 @@
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G69" s="19" t="s">
         <v>213</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>214</v>
       </c>
       <c r="H69" s="22"/>
     </row>
@@ -4159,10 +4182,10 @@
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H70" s="22"/>
     </row>
@@ -4173,13 +4196,13 @@
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G71" s="19"/>
       <c r="H71" s="22"/>
@@ -4190,16 +4213,16 @@
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>190</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G72" s="19"/>
       <c r="H72" s="22"/>
@@ -4210,16 +4233,16 @@
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>222</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>223</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>190</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G73" s="19"/>
       <c r="H73" s="22"/>
@@ -4230,7 +4253,7 @@
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="19">
         <v>41782666</v>
@@ -4239,7 +4262,7 @@
         <v>197</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G74" s="19"/>
       <c r="H74" s="22"/>
@@ -4250,16 +4273,16 @@
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G75" s="19"/>
       <c r="H75" s="22"/>
@@ -4270,16 +4293,16 @@
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G76" s="19"/>
       <c r="H76" s="22"/>
@@ -4290,16 +4313,16 @@
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>234</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G77" s="19"/>
       <c r="H77" s="22"/>
@@ -4310,16 +4333,16 @@
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>237</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G78" s="19"/>
       <c r="H78" s="22"/>
@@ -4330,16 +4353,16 @@
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G79" s="19"/>
       <c r="H79" s="22"/>
@@ -4350,16 +4373,16 @@
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F80" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>243</v>
       </c>
       <c r="G80" s="19"/>
       <c r="H80" s="22"/>
@@ -4370,19 +4393,19 @@
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H81" s="22"/>
     </row>
@@ -4392,20 +4415,20 @@
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D82" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>250</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4414,16 +4437,16 @@
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="22"/>
@@ -4434,19 +4457,19 @@
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H84" s="22"/>
     </row>
@@ -4456,12 +4479,12 @@
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G85" s="19"/>
       <c r="H85" s="22"/>
@@ -4472,12 +4495,12 @@
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G86" s="19"/>
       <c r="H86" s="22"/>
@@ -4488,16 +4511,16 @@
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" s="19" t="s">
         <v>265</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>266</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G87" s="19"/>
       <c r="H87" s="22"/>
@@ -4508,16 +4531,16 @@
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G88" s="19"/>
       <c r="H88" s="22"/>
@@ -4528,12 +4551,12 @@
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G89" s="19"/>
       <c r="H89" s="22"/>
@@ -4544,12 +4567,12 @@
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G90" s="19"/>
       <c r="H90" s="22"/>
@@ -4560,16 +4583,16 @@
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G91" s="19"/>
       <c r="H91" s="22"/>
@@ -4580,12 +4603,12 @@
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G92" s="19"/>
       <c r="H92" s="22"/>
@@ -4596,12 +4619,12 @@
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G93" s="19"/>
       <c r="H93" s="22"/>
@@ -4612,19 +4635,19 @@
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" s="19" t="s">
         <v>278</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>279</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F94" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="G94" s="19" t="s">
         <v>280</v>
-      </c>
-      <c r="G94" s="19" t="s">
-        <v>281</v>
       </c>
       <c r="H94" s="22"/>
     </row>
@@ -4634,16 +4657,16 @@
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G95" s="19"/>
       <c r="H95" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4652,12 +4675,12 @@
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G96" s="19"/>
       <c r="H96" s="22"/>
@@ -4668,7 +4691,7 @@
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
@@ -4685,18 +4708,18 @@
         <v>97</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
       <c r="F98" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="G98" s="31" t="s">
         <v>289</v>
-      </c>
-      <c r="G98" s="31" t="s">
-        <v>290</v>
       </c>
       <c r="H98" s="22"/>
     </row>
@@ -4705,15 +4728,15 @@
         <v>98</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="22"/>
@@ -4724,19 +4747,19 @@
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H100" s="22"/>
     </row>
@@ -4746,15 +4769,15 @@
       </c>
       <c r="B101" s="19"/>
       <c r="C101" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
       <c r="F101" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G101" s="31" t="s">
         <v>303</v>
-      </c>
-      <c r="G101" s="31" t="s">
-        <v>304</v>
       </c>
       <c r="H101" s="22"/>
     </row>
@@ -4764,15 +4787,15 @@
       </c>
       <c r="B102" s="19"/>
       <c r="C102" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
       <c r="F102" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G102" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H102" s="22"/>
     </row>
@@ -4782,16 +4805,16 @@
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G103" s="19"/>
       <c r="H103" s="22"/>
@@ -4802,12 +4825,12 @@
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G104" s="19"/>
       <c r="H104" s="22"/>
@@ -4821,7 +4844,7 @@
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G105" s="19"/>
       <c r="H105" s="22"/>
@@ -4832,16 +4855,16 @@
       </c>
       <c r="B106" s="19"/>
       <c r="C106" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G106" s="19"/>
       <c r="H106" s="22"/>
@@ -4852,12 +4875,12 @@
       </c>
       <c r="B107" s="19"/>
       <c r="C107" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G107" s="19"/>
       <c r="H107" s="22"/>
@@ -4868,12 +4891,12 @@
       </c>
       <c r="B108" s="19"/>
       <c r="C108" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
       <c r="F108" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G108" s="19"/>
       <c r="H108" s="22"/>
@@ -4884,15 +4907,15 @@
       </c>
       <c r="B109" s="19"/>
       <c r="C109" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
       <c r="F109" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H109" s="22"/>
     </row>
@@ -4902,15 +4925,15 @@
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
       <c r="F110" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H110" s="22"/>
     </row>
@@ -4920,19 +4943,19 @@
       </c>
       <c r="B111" s="19"/>
       <c r="C111" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D111" s="19" t="s">
         <v>327</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>328</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G111" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H111" s="22"/>
     </row>
@@ -4942,14 +4965,14 @@
       </c>
       <c r="B112" s="19"/>
       <c r="C112" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D112" s="19"/>
       <c r="E112" s="19" t="s">
         <v>190</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G112" s="19"/>
       <c r="H112" s="22"/>
@@ -4960,12 +4983,12 @@
       </c>
       <c r="B113" s="19"/>
       <c r="C113" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
       <c r="F113" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G113" s="19"/>
       <c r="H113" s="22"/>
@@ -4976,12 +4999,12 @@
       </c>
       <c r="B114" s="19"/>
       <c r="C114" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
       <c r="F114" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G114" s="19"/>
       <c r="H114" s="22"/>
@@ -4992,12 +5015,12 @@
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G115" s="19"/>
       <c r="H115" s="22"/>
@@ -5008,12 +5031,12 @@
       </c>
       <c r="B116" s="19"/>
       <c r="C116" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G116" s="19"/>
       <c r="H116" s="22"/>
@@ -5024,14 +5047,14 @@
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="19" t="s">
         <v>190</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G117" s="19"/>
       <c r="H117" s="22"/>
@@ -5042,16 +5065,16 @@
       </c>
       <c r="B118" s="19"/>
       <c r="C118" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G118" s="19"/>
       <c r="H118" s="22"/>
@@ -5062,12 +5085,12 @@
       </c>
       <c r="B119" s="19"/>
       <c r="C119" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
       <c r="F119" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G119" s="19"/>
       <c r="H119" s="22"/>
@@ -5078,12 +5101,12 @@
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
       <c r="F120" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G120" s="19"/>
       <c r="H120" s="22"/>
@@ -5094,16 +5117,16 @@
       </c>
       <c r="B121" s="19"/>
       <c r="C121" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D121" s="19"/>
       <c r="E121" s="19"/>
       <c r="F121" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G121" s="19"/>
       <c r="H121" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5112,12 +5135,12 @@
       </c>
       <c r="B122" s="19"/>
       <c r="C122" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
       <c r="F122" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G122" s="19"/>
       <c r="H122" s="22"/>
@@ -5129,13 +5152,13 @@
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
       <c r="D123" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G123" s="19"/>
       <c r="H123" s="22"/>
@@ -5147,7 +5170,7 @@
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
@@ -5160,12 +5183,12 @@
       </c>
       <c r="B125" s="19"/>
       <c r="C125" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
       <c r="F125" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G125" s="19"/>
       <c r="H125" s="22"/>
@@ -5176,14 +5199,14 @@
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E126" s="19"/>
       <c r="F126" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G126" s="19"/>
       <c r="H126" s="22"/>
@@ -5194,14 +5217,14 @@
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G127" s="19"/>
       <c r="H127" s="22"/>
@@ -5212,13 +5235,13 @@
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="E128" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
@@ -5230,15 +5253,15 @@
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
       <c r="F129" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="G129" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="G129" s="19" t="s">
-        <v>366</v>
       </c>
       <c r="H129" s="22"/>
     </row>
@@ -5248,15 +5271,15 @@
       </c>
       <c r="B130" s="19"/>
       <c r="C130" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
       <c r="F130" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G130" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H130" s="22"/>
     </row>
@@ -5267,19 +5290,19 @@
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
       <c r="D131" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E131" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F131" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="G131" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="H131" s="22" t="s">
         <v>371</v>
-      </c>
-      <c r="G131" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="H131" s="22" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5288,16 +5311,16 @@
       </c>
       <c r="B132" s="19"/>
       <c r="C132" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D132" s="19"/>
       <c r="E132" s="19"/>
       <c r="F132" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G132" s="19"/>
       <c r="H132" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5307,13 +5330,13 @@
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
       <c r="D133" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E133" s="19" t="s">
         <v>197</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G133" s="19"/>
       <c r="H133" s="22"/>
@@ -5324,12 +5347,12 @@
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
       <c r="F134" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G134" s="19"/>
       <c r="H134" s="22"/>
@@ -5340,12 +5363,12 @@
       </c>
       <c r="B135" s="19"/>
       <c r="C135" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
       <c r="F135" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G135" s="19"/>
       <c r="H135" s="22"/>
@@ -5356,12 +5379,12 @@
       </c>
       <c r="B136" s="19"/>
       <c r="C136" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
       <c r="F136" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G136" s="19"/>
       <c r="H136" s="22"/>
@@ -5372,40 +5395,52 @@
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="19" t="s">
         <v>190</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G137" s="19"/>
       <c r="H137" s="21" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>137</v>
       </c>
       <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
+      <c r="C138" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F138" s="33"/>
       <c r="G138" s="19"/>
       <c r="H138" s="22"/>
     </row>
-    <row r="139" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>138</v>
       </c>
       <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
+      <c r="C139" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>361</v>
+      </c>
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
       <c r="H139" s="22"/>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="394">
-  <si>
-    <t>Fecha</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="452">
   <si>
     <t>Donde</t>
   </si>
@@ -1619,9 +1616,6 @@
     <t>https://www.researchgate.net/publication/307864150_Design_Principles_for_Industrie_40_Scenarios_A_Literature_Review</t>
   </si>
   <si>
-    <t>i 4.0 paper citable</t>
-  </si>
-  <si>
     <t>@unknown{unknown,
 author = {Hermann, Mario and Pentek, Tobias and Otto, Boris},
 year = {2015},
@@ -2087,12 +2081,259 @@
       <t>): An analysis framework. Computers in Industry 2018</t>
     </r>
   </si>
+  <si>
+    <t>@article{hurtado2012metodologia,
+  title={Metodolog{\'\i}a de la investigaci{\'o}n hol{\'\i}stica. Cuarta edici{\'o}n SYPAL--CIEA},
+  author={Hurtado De Barrera, Jacqueline},
+  journal={Quir{\'o}n ediciones Bogot{\'a}--Caracas},
+  year={2012}
+}</t>
+  </si>
+  <si>
+    <t>Investigación Holística</t>
+  </si>
+  <si>
+    <t>https://www.guiadaengenharia.com/estacao-tratamento-agua/</t>
+  </si>
+  <si>
+    <t>floculador hidraulico</t>
+  </si>
+  <si>
+    <t>hpuarc</t>
+  </si>
+  <si>
+    <t>(Pérez et al. 2015) de hpuarc</t>
+  </si>
+  <si>
+    <t>la.mathworks.com</t>
+  </si>
+  <si>
+    <t>@inproceedings{del2016industria,
+  title={Industria 4.0: la transformaci{\'o}n digital de la industria},
+  author={Del Val Rom{\'a}n, Jos{\'e} Luis},
+  booktitle={Valencia: Conferencia de Directores y Decanos de Ingenier{\'\i}a Inform{\'a}tica, Informes CODDII},
+  year={2016}
+}</t>
+  </si>
+  <si>
+    <t>del2016industria</t>
+  </si>
+  <si>
+    <t>citep</t>
+  </si>
+  <si>
+    <t>world2018harnessing</t>
+  </si>
+  <si>
+    <t>lofrano2010wastewater</t>
+  </si>
+  <si>
+    <t>symons2006water</t>
+  </si>
+  <si>
+    <t>@article{10019329797,
+author="COOPER, P. F.",
+title="Historical aspects of wastewater treatment",
+journal="Decentralised Sanitation and Reuse",
+ISSN="",
+publisher="IWA Publishing",
+year="2001",
+month="",
+volume="",
+number="",
+pages="",
+URL="https://ci.nii.ac.jp/naid/10019329797/en/",
+DOI="",
+}</t>
+  </si>
+  <si>
+    <t>cooper2001historical</t>
+  </si>
+  <si>
+    <t>@mastersthesis{rojas2015modelamiento,
+  title={Modelamiento de los sistemas de potabilizaci{\'o}n de agua, orientado al dise{\~n}o de los sistemas de control supervisorio, caso EMAPAL EP-Azogues},
+  author={Rojas Coronel, Jaime Eduardo},
+  year={2015}
+}</t>
+  </si>
+  <si>
+    <t>rojas2015modelamiento</t>
+  </si>
+  <si>
+    <t>chacon2018the</t>
+  </si>
+  <si>
+    <t>lietha2018la</t>
+  </si>
+  <si>
+    <t>mrosik2018era</t>
+  </si>
+  <si>
+    <t>@inproceedings{moteff2004critical,
+  title={Critical infrastructure and key assets: definition and identification},
+  author={Moteff, John and Parfomak, Paul},
+  year={2004},
+  organization={LIBRARY OF CONGRESS WASHINGTON DC CONGRESSIONAL RESEARCH SERVICE}
+}</t>
+  </si>
+  <si>
+    <t>moteff2004critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hermann2015design</t>
+  </si>
+  <si>
+    <t>i 4.0 paper citable Conclusiones etc</t>
+  </si>
+  <si>
+    <t>alarcon2018digitalizacion</t>
+  </si>
+  <si>
+    <t>monostori2016cyber</t>
+  </si>
+  <si>
+    <t>el mismo 63</t>
+  </si>
+  <si>
+    <t>@article{article,
+author = {Boyes, Hugh and Hallaq, Bil and Cunningham, Joe and Watson, Tim},
+year = {2018},
+month = {10},
+pages = {1-12},
+title = {The industrial internet of things (IIoT): An analysis framework},
+volume = {101},
+journal = {Computers in Industry},
+doi = {10.1016/j.compind.2018.04.015}
+}</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/327991572_The_industrial_internet_of_things_IIoT_An_analysis_framework</t>
+  </si>
+  <si>
+    <t>boyes2018the</t>
+  </si>
+  <si>
+    <t>@article{article,
+author = {Thoben, Klaus-Dieter and Wiesner, Stefan and Wuest, Thorsten},
+year = {2017},
+month = {01},
+pages = {4-19},
+title = {"Industrie 4.0" and Smart Manufacturing – A Review of Research Issues and Application Examples},
+volume = {11},
+journal = {International Journal of Automation Technology},
+doi = {10.20965/ijat.2017.p0004}
+}</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/312069858_Industrie_40_and_Smart_Manufacturing_-_A_Review_of_Research_Issues_and_Application_Examples</t>
+  </si>
+  <si>
+    <t>thoben2017industrie</t>
+  </si>
+  <si>
+    <t>@article{li2018smart,
+  title={Smart manufacturing standardization: Architectures, reference models and standards framework},
+  author={Li, Qing and Tang, Qianlin and Chan, Iotong and Wei, Hailong and Pu, Yudi and Jiang, Hongzhen and Li, Jun and Zhou, Jian},
+  journal={Computers in Industry},
+  volume={101},
+  pages={91--106},
+  year={2018},
+  publisher={Elsevier}
+}</t>
+  </si>
+  <si>
+    <t>li2018smart</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0166361517302075</t>
+  </si>
+  <si>
+    <t>rouse2012analisis</t>
+  </si>
+  <si>
+    <t>schroeder2016digital</t>
+  </si>
+  <si>
+    <t>correa2009diseno</t>
+  </si>
+  <si>
+    <t>chacon2012online</t>
+  </si>
+  <si>
+    <t>perez2015implementacion</t>
+  </si>
+  <si>
+    <t>mahla2004sistemas</t>
+  </si>
+  <si>
+    <t>cruz2007control</t>
+  </si>
+  <si>
+    <t>@article{article,
+author = {Monostori, Laszlo and Kádár, Botond and Bauernhansl, Thomas and Kondoh, Shinsuke and Kumara, Soundar and Reinhart, Gunther and Sauer, Olaf and Schuh, Günther and Sihn, Wilfried and Ueda, K},
+year = {2016},
+month = {08},
+pages = {621–641},
+title = {Cyber-physical systems in manufacturing},
+volume = {65},
+journal = {CIRP Annals - Manufacturing Technology},
+doi = {10.1016/j.cirp.2016.06.005}
+}</t>
+  </si>
+  <si>
+    <t>hitachiNAwater</t>
+  </si>
+  <si>
+    <t>pinos2016analisis</t>
+  </si>
+  <si>
+    <t>cabello2016analisis</t>
+  </si>
+  <si>
+    <t>jaramillo2014documentacion</t>
+  </si>
+  <si>
+    <t>This is BibTeX, Version 0.99d (MiKTeX 2.9.6800) The top-level auxiliary file: proyecto_YsisLacruz.aux White space in argument---line 137 of file proyecto_YsisLacruz.aux : \citation{jaramillo2014documentacion : } I'm skipping whatever remains of this command The style file: apa.bst Database file #1: Bibliog.bib Repeated entry---line 231 of file Bibliog.bib : @misc{cabello2016analisis : , I'm skipping whatever remains of this entry Warning--to sort, need author or key in hitachiNAwater Warning--empty year in hitachiNAwater Warning--empty chapter and pages in chacon2012online Warning--empty publisher in chacon2012online Warning--empty note in chacon2018the Warning--there's a number but no volume in klaus2017industrie Warning--there's a number but no volume in morales2018uso Warning--empty booktitle in moteff2004critical Warning--there's a number but no volume in academyc2016a Warning--there's a number but no volume in cardin2018evolution Warning--empty note in perez2015implementacion Warning--empty year in Warning--empty school in rojas2015modelamiento (There were 2 error messages)</t>
+  </si>
+  <si>
+    <t>perezNAabastecimiento</t>
+  </si>
+  <si>
+    <t>hudson1997medicion</t>
+  </si>
+  <si>
+    <t>sena1999operacion</t>
+  </si>
+  <si>
+    <t>chacon2019a</t>
+  </si>
+  <si>
+    <t>perez2015a</t>
+  </si>
+  <si>
+    <t>indriago2008modelo</t>
+  </si>
+  <si>
+    <t>rossman2001epanet</t>
+  </si>
+  <si>
+    <t>eliades2016epanet</t>
+  </si>
+  <si>
+    <t>farhaoui2016optimization</t>
+  </si>
+  <si>
+    <t>bazer1990model</t>
+  </si>
+  <si>
+    <t>apostol2011optimization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2163,16 +2404,59 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF68D0DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2277,11 +2561,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2302,18 +2598,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2356,18 +2646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2377,11 +2655,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2453,6 +2866,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF68D0DE"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2749,17 +3165,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" style="1" customWidth="1"/>
@@ -2769,2793 +3185,2979 @@
     <col min="10" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>43318</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>43320</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <v>43320</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>43320</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <v>43320</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="D9" s="31">
+        <v>12425</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="F9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9">
-        <v>12425</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
+        <v>12</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H13" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="H19" s="10"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" s="21" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" s="19" customFormat="1" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="E23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="19" t="s">
+      <c r="G23" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="H23" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
+      <c r="G24" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="H24" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="E26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="19" t="s">
+      <c r="G26" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="H26" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="E27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="19" t="s">
+      <c r="G27" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="H27" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="E28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="19" t="s">
+      <c r="H28" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="54"/>
+      <c r="C29" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="E29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="19" t="s">
+      <c r="G29" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="H29" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="E30" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="E31" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="20"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="20"/>
+      <c r="E32" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="E33" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="19" t="s">
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43">
+        <v>33</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>438</v>
+      </c>
+      <c r="C34" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27">
-        <v>33</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="26" t="s">
+      <c r="D34" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="69"/>
     </row>
     <row r="35" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="54"/>
+      <c r="C35" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="E35" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="54"/>
+      <c r="C36" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="1:9" s="21" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" s="19" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="19" t="s">
+      <c r="H37" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="19" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30">
+        <v>37</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>439</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H37" s="23" t="s">
+      <c r="E38" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="36" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="21" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="19" t="s">
+      <c r="H38" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="H38" s="25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="21" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" s="19" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="54"/>
+      <c r="C39" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="19" t="s">
+      <c r="H39" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H39" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="22"/>
-    </row>
-    <row r="41" spans="1:9" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="17"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="54"/>
+      <c r="C41" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="1:9" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="70">
+        <v>41</v>
+      </c>
+      <c r="B42" s="71" t="s">
+        <v>441</v>
+      </c>
+      <c r="C42" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="22"/>
-    </row>
-    <row r="42" spans="1:9" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="19" t="s">
+      <c r="E42" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:9" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="72"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="22"/>
-    </row>
-    <row r="44" spans="1:9" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="54"/>
+      <c r="C43" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:9" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="22"/>
-    </row>
-    <row r="45" spans="1:9" s="21" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="54"/>
+      <c r="C44" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" s="19" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="E45" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="19" t="s">
+      <c r="G45" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="H45" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="I45" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I45" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:9" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="22"/>
-    </row>
-    <row r="47" spans="1:9" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="54"/>
+      <c r="C46" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" s="19" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="22"/>
-    </row>
-    <row r="48" spans="1:9" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="54"/>
+      <c r="C47" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="19" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="22"/>
-    </row>
-    <row r="49" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="22"/>
-    </row>
-    <row r="50" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="54"/>
+      <c r="C49" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="22"/>
-    </row>
-    <row r="51" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="54"/>
+      <c r="C50" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="22"/>
-    </row>
-    <row r="52" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="54"/>
+      <c r="C51" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="22"/>
-    </row>
-    <row r="53" spans="1:8" s="21" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="54"/>
+      <c r="C52" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" s="19" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="54"/>
+      <c r="C53" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G53" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="21" t="s">
+      <c r="H53" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G53" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19" t="s">
+      <c r="B54" s="54"/>
+      <c r="C54" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="22"/>
-    </row>
-    <row r="55" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="17"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D55" s="31" t="s">
+      <c r="B55" s="54"/>
+      <c r="C55" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E55" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="22"/>
-    </row>
-    <row r="56" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="17"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" s="19" t="s">
+      <c r="B56" s="54"/>
+      <c r="C56" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="22"/>
-    </row>
-    <row r="57" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="17"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" spans="1:8" s="19" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="54"/>
+      <c r="C57" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="22"/>
-    </row>
-    <row r="58" spans="1:8" s="21" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" spans="1:8" s="19" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="54"/>
+      <c r="C58" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="22"/>
-    </row>
-    <row r="59" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="20"/>
+    </row>
+    <row r="59" spans="1:8" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="54"/>
+      <c r="C59" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="E59" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E59" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="19" t="s">
+      <c r="G59" s="17"/>
+    </row>
+    <row r="60" spans="1:8" s="19" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="30">
+        <v>59</v>
+      </c>
+      <c r="B60" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="G60" s="36"/>
+      <c r="H60" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:8" s="21" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="21" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:8" s="19" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="54"/>
+      <c r="C61" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D61" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="21" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="17"/>
+      <c r="H61" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="19" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19" t="s">
+      <c r="B62" s="54"/>
+      <c r="C62" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="25" t="s">
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" s="21" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="17"/>
+      <c r="H62" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="54"/>
+      <c r="C63" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="G63" s="17"/>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="1:8" s="19" customFormat="1" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="43">
+        <v>63</v>
+      </c>
+      <c r="B64" s="58" t="s">
+        <v>417</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F63" s="19" t="s">
+      <c r="E64" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="22"/>
-    </row>
-    <row r="64" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
-        <v>63</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19" t="s">
+      <c r="F64" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="G64" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="H64" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="22" t="s">
+    </row>
+    <row r="65" spans="1:8" s="19" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="30">
+        <v>64</v>
+      </c>
+      <c r="B65" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="36" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
-        <v>64</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19" t="s">
+      <c r="E65" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="G65" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="D65" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G65" s="19" t="s">
+      <c r="H65" s="39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="30">
+        <v>65</v>
+      </c>
+      <c r="B66" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="C66" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="H65" s="22"/>
-    </row>
-    <row r="66" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
-        <v>65</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19" t="s">
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19" t="s">
+      <c r="G66" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="G66" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="H66" s="22"/>
-    </row>
-    <row r="67" spans="1:8" s="21" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H66" s="37"/>
+    </row>
+    <row r="67" spans="1:8" s="19" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="54"/>
+      <c r="C67" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F67" s="19" t="s">
+      <c r="G67" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="H67" s="20"/>
+    </row>
+    <row r="68" spans="1:8" s="19" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="43">
+        <v>67</v>
+      </c>
+      <c r="B68" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="22"/>
-    </row>
-    <row r="68" spans="1:8" s="21" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
-        <v>67</v>
-      </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19" t="s">
+      <c r="G68" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="H68" s="48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="19" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="30">
+        <v>68</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="G69" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="G68" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="H68" s="22"/>
-    </row>
-    <row r="69" spans="1:8" s="21" customFormat="1" ht="76.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <v>68</v>
-      </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="G69" s="19" t="s">
+      <c r="H69" s="39" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="19" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="30">
+        <v>69</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>428</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G70" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="H69" s="22"/>
-    </row>
-    <row r="70" spans="1:8" s="21" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
-        <v>69</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19" t="s">
+      <c r="H70" s="37"/>
+    </row>
+    <row r="71" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="40">
+        <v>70</v>
+      </c>
+      <c r="B71" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="G70" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="H70" s="22"/>
-    </row>
-    <row r="71" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
-        <v>70</v>
-      </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
+      <c r="E71" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="E71" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="22"/>
-    </row>
-    <row r="72" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="41"/>
+      <c r="H71" s="42"/>
+    </row>
+    <row r="72" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19" t="s">
+      <c r="B72" s="54"/>
+      <c r="C72" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="D72" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="22"/>
-    </row>
-    <row r="73" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="17"/>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19" t="s">
+      <c r="B73" s="54"/>
+      <c r="C73" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="E73" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F73" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E73" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="22"/>
-    </row>
-    <row r="74" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="17"/>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19" t="s">
+      <c r="B74" s="54"/>
+      <c r="C74" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="17">
+        <v>41782666</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F74" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D74" s="19">
-        <v>41782666</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="22"/>
-    </row>
-    <row r="75" spans="1:8" s="21" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="17"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="1:8" s="19" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19" t="s">
+      <c r="B75" s="54"/>
+      <c r="C75" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F75" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D75" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="22"/>
-    </row>
-    <row r="76" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="17"/>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19" t="s">
+      <c r="B76" s="54"/>
+      <c r="C76" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="E76" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E76" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="G76" s="19"/>
-      <c r="H76" s="22"/>
-    </row>
-    <row r="77" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="17"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19" t="s">
+      <c r="B77" s="54"/>
+      <c r="C77" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="E77" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F77" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E77" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="G77" s="19"/>
-      <c r="H77" s="22"/>
-    </row>
-    <row r="78" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="17"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19" t="s">
+      <c r="B78" s="54"/>
+      <c r="C78" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="E78" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="E78" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="22"/>
-    </row>
-    <row r="79" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="17"/>
+      <c r="H78" s="20"/>
+    </row>
+    <row r="79" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="54"/>
+      <c r="C79" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F79" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="D79" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="G79" s="19"/>
-      <c r="H79" s="22"/>
-    </row>
-    <row r="80" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="17"/>
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19" t="s">
+      <c r="B80" s="54"/>
+      <c r="C80" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F80" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="D80" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="G80" s="19"/>
-      <c r="H80" s="22"/>
-    </row>
-    <row r="81" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="17"/>
+      <c r="H80" s="20"/>
+    </row>
+    <row r="81" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="19" t="s">
+      <c r="B81" s="54"/>
+      <c r="C81" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="G81" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="H81" s="22"/>
-    </row>
-    <row r="82" spans="1:8" s="21" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="H81" s="20"/>
+    </row>
+    <row r="82" spans="1:8" s="19" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19" t="s">
+      <c r="B82" s="54"/>
+      <c r="C82" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="E82" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E82" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F82" s="19" t="s">
+      <c r="G82" s="17"/>
+      <c r="H82" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="G82" s="19"/>
-      <c r="H82" s="25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19" t="s">
+      <c r="B83" s="54"/>
+      <c r="C83" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G83" s="17"/>
+      <c r="H83" s="20"/>
+    </row>
+    <row r="84" spans="1:8" s="19" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="30">
+        <v>83</v>
+      </c>
+      <c r="B84" s="55" t="s">
+        <v>450</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D84" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="D83" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="G83" s="19"/>
-      <c r="H83" s="22"/>
-    </row>
-    <row r="84" spans="1:8" s="21" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
-        <v>83</v>
-      </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19" t="s">
+      <c r="E84" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F84" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G84" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="D84" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="G84" s="19" t="s">
+      <c r="H84" s="20"/>
+    </row>
+    <row r="85" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="30">
+        <v>84</v>
+      </c>
+      <c r="B85" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="C85" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="H84" s="22"/>
-    </row>
-    <row r="85" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
-        <v>84</v>
-      </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19" t="s">
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="G85" s="19"/>
-      <c r="H85" s="22"/>
-    </row>
-    <row r="86" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="36"/>
+      <c r="H85" s="37"/>
+    </row>
+    <row r="86" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19" t="s">
+      <c r="B86" s="54"/>
+      <c r="C86" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19" t="s">
+      <c r="G86" s="17"/>
+      <c r="H86" s="20"/>
+    </row>
+    <row r="87" spans="1:8" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="30">
+        <v>86</v>
+      </c>
+      <c r="B87" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="C87" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="G86" s="19"/>
-      <c r="H86" s="22"/>
-    </row>
-    <row r="87" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
-        <v>86</v>
-      </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19" t="s">
+      <c r="D87" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="E87" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="E87" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="19" t="s">
+      <c r="G87" s="36"/>
+      <c r="H87" s="37"/>
+    </row>
+    <row r="88" spans="1:8" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="30">
+        <v>87</v>
+      </c>
+      <c r="B88" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="G87" s="19"/>
-      <c r="H87" s="22"/>
-    </row>
-    <row r="88" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
-        <v>87</v>
-      </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19" t="s">
+      <c r="E88" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G88" s="36"/>
+      <c r="H88" s="37"/>
+    </row>
+    <row r="89" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>88</v>
+      </c>
+      <c r="B89" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="C89" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="D88" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="G88" s="19"/>
-      <c r="H88" s="22"/>
-    </row>
-    <row r="89" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
-        <v>88</v>
-      </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="G89" s="19"/>
-      <c r="H89" s="22"/>
-    </row>
-    <row r="90" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G89" s="41"/>
+      <c r="H89" s="42"/>
+    </row>
+    <row r="90" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19" t="s">
+      <c r="B90" s="54"/>
+      <c r="C90" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="G90" s="19"/>
-      <c r="H90" s="22"/>
-    </row>
-    <row r="91" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="17"/>
+      <c r="H90" s="20"/>
+    </row>
+    <row r="91" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D91" s="19" t="s">
+      <c r="B91" s="54"/>
+      <c r="C91" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="E91" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G91" s="19"/>
-      <c r="H91" s="22"/>
-    </row>
-    <row r="92" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="17"/>
+      <c r="H91" s="20"/>
+    </row>
+    <row r="92" spans="1:8" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="G92" s="19"/>
-      <c r="H92" s="22"/>
-    </row>
-    <row r="93" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="54"/>
+      <c r="C92" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G92" s="17"/>
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="G93" s="19"/>
-      <c r="H93" s="22"/>
-    </row>
-    <row r="94" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="54"/>
+      <c r="C93" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="G93" s="17"/>
+      <c r="H93" s="20"/>
+    </row>
+    <row r="94" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19" t="s">
+      <c r="B94" s="54"/>
+      <c r="C94" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D94" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="E94" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="E94" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="19" t="s">
+      <c r="G94" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="G94" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H94" s="22"/>
-    </row>
-    <row r="95" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="1:8" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19" t="s">
+      <c r="B95" s="54"/>
+      <c r="C95" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G95" s="19"/>
-      <c r="H95" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="17"/>
+      <c r="H95" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="G96" s="19"/>
-      <c r="H96" s="22"/>
-    </row>
-    <row r="97" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="54"/>
+      <c r="C96" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G96" s="17"/>
+      <c r="H96" s="20"/>
+    </row>
+    <row r="97" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F97" s="19" t="s">
+      <c r="B97" s="54"/>
+      <c r="C97" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="G97" s="19"/>
-      <c r="H97" s="22"/>
-    </row>
-    <row r="98" spans="1:8" s="21" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
+      <c r="F97" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G97" s="17"/>
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" spans="1:8" s="19" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="30">
         <v>97</v>
       </c>
-      <c r="B98" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="C98" s="19" t="s">
+      <c r="B98" s="55" t="s">
+        <v>414</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="G98" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="G98" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="H98" s="22"/>
-    </row>
-    <row r="99" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H98" s="37"/>
+    </row>
+    <row r="99" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="C99" s="19" t="s">
+      <c r="B99" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="G99" s="19"/>
-      <c r="H99" s="22"/>
-    </row>
-    <row r="100" spans="1:8" s="21" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="G99" s="17"/>
+      <c r="H99" s="20"/>
+    </row>
+    <row r="100" spans="1:8" s="19" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D100" s="19" t="s">
+      <c r="B100" s="54"/>
+      <c r="C100" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="E100" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="G100" s="31" t="s">
+      <c r="D100" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="H100" s="22"/>
-    </row>
-    <row r="101" spans="1:8" s="21" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G100" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="H100" s="20"/>
+    </row>
+    <row r="101" spans="1:8" s="19" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19" t="s">
+      <c r="B101" s="54"/>
+      <c r="C101" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="G101" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19" t="s">
+      <c r="H101" s="20"/>
+    </row>
+    <row r="102" spans="1:8" s="19" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="30">
+        <v>101</v>
+      </c>
+      <c r="B102" s="58" t="s">
+        <v>429</v>
+      </c>
+      <c r="C102" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="G101" s="31" t="s">
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G102" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="H101" s="22"/>
-    </row>
-    <row r="102" spans="1:8" s="21" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
-        <v>101</v>
-      </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19" t="s">
+      <c r="H102" s="37"/>
+    </row>
+    <row r="103" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="30">
+        <v>102</v>
+      </c>
+      <c r="B103" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D103" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="G102" s="31" t="s">
+      <c r="E103" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="H102" s="22"/>
-    </row>
-    <row r="103" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="7">
-        <v>102</v>
-      </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F103" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="G103" s="19"/>
-      <c r="H103" s="22"/>
-    </row>
-    <row r="104" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="36"/>
+      <c r="H103" s="37"/>
+    </row>
+    <row r="104" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19" t="s">
+      <c r="B104" s="54"/>
+      <c r="C104" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="G104" s="17"/>
+      <c r="H104" s="20"/>
+    </row>
+    <row r="105" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="30">
+        <v>104</v>
+      </c>
+      <c r="B105" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19" t="s">
+      <c r="G105" s="36"/>
+      <c r="H105" s="37"/>
+    </row>
+    <row r="106" spans="1:8" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="30">
+        <v>105</v>
+      </c>
+      <c r="B106" s="55" t="s">
+        <v>446</v>
+      </c>
+      <c r="C106" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="G104" s="19"/>
-      <c r="H104" s="22"/>
-    </row>
-    <row r="105" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7">
-        <v>104</v>
-      </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19" t="s">
+      <c r="D106" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E106" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="G105" s="19"/>
-      <c r="H105" s="22"/>
-    </row>
-    <row r="106" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="7">
-        <v>105</v>
-      </c>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="D106" s="19" t="s">
+      <c r="G106" s="36"/>
+      <c r="H106" s="20"/>
+    </row>
+    <row r="107" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="30">
+        <v>106</v>
+      </c>
+      <c r="B107" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="E106" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="G106" s="19"/>
-      <c r="H106" s="22"/>
-    </row>
-    <row r="107" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="7">
-        <v>106</v>
-      </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="G107" s="19"/>
-      <c r="H107" s="22"/>
-    </row>
-    <row r="108" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G107" s="36"/>
+      <c r="H107" s="37"/>
+    </row>
+    <row r="108" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19" t="s">
+      <c r="B108" s="54"/>
+      <c r="C108" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="G108" s="17"/>
+      <c r="H108" s="20"/>
+    </row>
+    <row r="109" spans="1:8" s="19" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="30">
+        <v>108</v>
+      </c>
+      <c r="B109" s="58" t="s">
+        <v>431</v>
+      </c>
+      <c r="C109" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19" t="s">
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G109" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="G108" s="19"/>
-      <c r="H108" s="22"/>
-    </row>
-    <row r="109" spans="1:8" s="21" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7">
-        <v>108</v>
-      </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="G109" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="H109" s="22"/>
-    </row>
-    <row r="110" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H109" s="37"/>
+    </row>
+    <row r="110" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="G110" s="19" t="s">
+      <c r="B110" s="54"/>
+      <c r="C110" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H110" s="22"/>
-    </row>
-    <row r="111" spans="1:8" s="21" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="H110" s="20"/>
+    </row>
+    <row r="111" spans="1:8" s="19" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F111" s="19" t="s">
+      <c r="B111" s="54"/>
+      <c r="C111" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="G111" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="G111" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="H111" s="22"/>
-    </row>
-    <row r="112" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H111" s="20"/>
+    </row>
+    <row r="112" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F112" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="G112" s="19"/>
-      <c r="H112" s="22"/>
-    </row>
-    <row r="113" spans="1:8" s="21" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="54"/>
+      <c r="C112" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="G112" s="17"/>
+      <c r="H112" s="20"/>
+    </row>
+    <row r="113" spans="1:8" s="19" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="G113" s="19"/>
-      <c r="H113" s="22"/>
-    </row>
-    <row r="114" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="54"/>
+      <c r="C113" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="G113" s="17"/>
+      <c r="H113" s="20"/>
+    </row>
+    <row r="114" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="G114" s="19"/>
-      <c r="H114" s="22"/>
-    </row>
-    <row r="115" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="54"/>
+      <c r="C114" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="G114" s="17"/>
+      <c r="H114" s="20"/>
+    </row>
+    <row r="115" spans="1:8" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19" t="s">
+      <c r="B115" s="54"/>
+      <c r="C115" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="G115" s="17"/>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="30">
+        <v>115</v>
+      </c>
+      <c r="B116" s="55" t="s">
+        <v>443</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="G115" s="19"/>
-      <c r="H115" s="22"/>
-    </row>
-    <row r="116" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="7">
-        <v>115</v>
-      </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="G116" s="19"/>
-      <c r="H116" s="22"/>
-    </row>
-    <row r="117" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G116" s="36"/>
+      <c r="H116" s="20"/>
+    </row>
+    <row r="117" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F117" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="G117" s="19"/>
-      <c r="H117" s="22"/>
-    </row>
-    <row r="118" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="54"/>
+      <c r="C117" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="G117" s="17"/>
+      <c r="H117" s="20"/>
+    </row>
+    <row r="118" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="D118" s="19" t="s">
+      <c r="B118" s="54"/>
+      <c r="C118" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="E118" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F118" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="G118" s="19"/>
-      <c r="H118" s="22"/>
-    </row>
-    <row r="119" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="G118" s="17"/>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" spans="1:8" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="G119" s="19"/>
-      <c r="H119" s="22"/>
-    </row>
-    <row r="120" spans="1:8" s="21" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="54"/>
+      <c r="C119" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="G119" s="17"/>
+      <c r="H119" s="20"/>
+    </row>
+    <row r="120" spans="1:8" s="19" customFormat="1" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="G120" s="19"/>
-      <c r="H120" s="22"/>
-    </row>
-    <row r="121" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="54"/>
+      <c r="C120" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="G120" s="17"/>
+      <c r="H120" s="20"/>
+    </row>
+    <row r="121" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19" t="s">
+      <c r="B121" s="54"/>
+      <c r="C121" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G121" s="17"/>
+      <c r="H121" t="s">
         <v>347</v>
       </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="G121" s="19"/>
-      <c r="H121" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="G122" s="19"/>
-      <c r="H122" s="22"/>
-    </row>
-    <row r="123" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="54"/>
+      <c r="C122" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="G122" s="17"/>
+      <c r="H122" s="20"/>
+    </row>
+    <row r="123" spans="1:8" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19" t="s">
+      <c r="B123" s="54"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="G123" s="17"/>
+      <c r="H123" s="20"/>
+    </row>
+    <row r="124" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="30">
+        <v>123</v>
+      </c>
+      <c r="B124" s="55" t="s">
+        <v>447</v>
+      </c>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="E123" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F123" s="19" t="s">
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="20"/>
+    </row>
+    <row r="125" spans="1:8" s="19" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="30">
+        <v>124</v>
+      </c>
+      <c r="B125" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="C125" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="G123" s="19"/>
-      <c r="H123" s="22"/>
-    </row>
-    <row r="124" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="7">
-        <v>123</v>
-      </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19" t="s">
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="22"/>
-    </row>
-    <row r="125" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="7">
-        <v>124</v>
-      </c>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19" t="s">
+      <c r="G125" s="36"/>
+      <c r="H125" s="20"/>
+    </row>
+    <row r="126" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="30">
+        <v>125</v>
+      </c>
+      <c r="B126" s="55" t="s">
+        <v>451</v>
+      </c>
+      <c r="C126" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="G125" s="19"/>
-      <c r="H125" s="22"/>
-    </row>
-    <row r="126" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="7">
-        <v>125</v>
-      </c>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="G126" s="19"/>
-      <c r="H126" s="22"/>
-    </row>
-    <row r="127" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D126" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="G126" s="36"/>
+      <c r="H126" s="20"/>
+    </row>
+    <row r="127" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="G127" s="19"/>
-      <c r="H127" s="22"/>
-    </row>
-    <row r="128" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="54"/>
+      <c r="C127" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="G127" s="17"/>
+      <c r="H127" s="20"/>
+    </row>
+    <row r="128" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19" t="s">
+      <c r="B128" s="54"/>
+      <c r="C128" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="D128" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="D128" s="19" t="s">
+      <c r="E128" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="20"/>
+    </row>
+    <row r="129" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="30">
+        <v>128</v>
+      </c>
+      <c r="B129" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="C129" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="E128" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="22"/>
-    </row>
-    <row r="129" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="7">
-        <v>128</v>
-      </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19" t="s">
+      <c r="G129" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="G129" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="H129" s="22"/>
-    </row>
-    <row r="130" spans="1:8" s="21" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H129" s="37"/>
+    </row>
+    <row r="130" spans="1:8" s="19" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19" t="s">
+      <c r="B130" s="54"/>
+      <c r="C130" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="H130" s="20"/>
+    </row>
+    <row r="131" spans="1:8" s="19" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="30">
+        <v>130</v>
+      </c>
+      <c r="B131" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19" t="s">
+      <c r="E131" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F131" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="G130" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="H130" s="22"/>
-    </row>
-    <row r="131" spans="1:8" s="21" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="7">
-        <v>130</v>
-      </c>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19" t="s">
+      <c r="G131" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="H131" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="E131" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F131" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="G131" s="31" t="s">
+    </row>
+    <row r="132" spans="1:8" s="19" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="30">
+        <v>131</v>
+      </c>
+      <c r="B132" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="C132" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="H131" s="22" t="s">
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="G132" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="H132" s="37" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="7">
-        <v>131</v>
-      </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19" t="s">
+    <row r="133" spans="1:8" s="19" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="30">
+        <v>132</v>
+      </c>
+      <c r="B133" s="60" t="s">
+        <v>408</v>
+      </c>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36" t="s">
         <v>374</v>
       </c>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19" t="s">
+      <c r="E133" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F133" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="G132" s="19"/>
-      <c r="H132" s="22" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="7">
-        <v>132</v>
-      </c>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="E133" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F133" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="G133" s="19"/>
-      <c r="H133" s="22"/>
-    </row>
-    <row r="134" spans="1:8" s="21" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G133" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="H133" s="37"/>
+    </row>
+    <row r="134" spans="1:8" s="19" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="G134" s="19"/>
-      <c r="H134" s="22"/>
-    </row>
-    <row r="135" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="54"/>
+      <c r="C134" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="G134" s="17"/>
+      <c r="H134" s="20"/>
+    </row>
+    <row r="135" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="G135" s="19"/>
-      <c r="H135" s="22"/>
-    </row>
-    <row r="136" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="54"/>
+      <c r="C135" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="G135" s="17"/>
+      <c r="H135" s="20"/>
+    </row>
+    <row r="136" spans="1:8" s="19" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19" t="s">
+      <c r="B136" s="54"/>
+      <c r="C136" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="G136" s="17"/>
+      <c r="H136" s="20"/>
+    </row>
+    <row r="137" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="30">
+        <v>136</v>
+      </c>
+      <c r="B137" s="55" t="s">
+        <v>418</v>
+      </c>
+      <c r="C137" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19" t="s">
+      <c r="D137" s="36"/>
+      <c r="E137" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F137" s="36" t="s">
         <v>385</v>
       </c>
-      <c r="G136" s="19"/>
-      <c r="H136" s="22"/>
-    </row>
-    <row r="137" spans="1:8" s="21" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="7">
-        <v>136</v>
-      </c>
-      <c r="B137" s="19"/>
-      <c r="C137" s="1" t="s">
+      <c r="G137" s="36"/>
+      <c r="H137" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F137" s="19" t="s">
+    </row>
+    <row r="138" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="30">
+        <v>137</v>
+      </c>
+      <c r="B138" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="C138" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="G137" s="19"/>
-      <c r="H137" s="21" t="s">
+      <c r="D138" s="36" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" s="21" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="7">
-        <v>137</v>
-      </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19" t="s">
+      <c r="E138" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F138" s="64"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="37"/>
+    </row>
+    <row r="139" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="30">
+        <v>138</v>
+      </c>
+      <c r="B139" s="55" t="s">
+        <v>442</v>
+      </c>
+      <c r="C139" s="36" t="s">
         <v>389</v>
       </c>
-      <c r="D138" s="19" t="s">
+      <c r="D139" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="E138" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F138" s="33"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="22"/>
-    </row>
-    <row r="139" spans="1:8" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="7">
-        <v>138</v>
-      </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="E139" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="22"/>
-    </row>
-    <row r="140" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E139" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="F139" s="36"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="20"/>
+    </row>
+    <row r="140" spans="1:8" s="19" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="22"/>
-    </row>
-    <row r="141" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="54"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="H140" s="20"/>
+    </row>
+    <row r="141" spans="1:8" s="19" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="22"/>
-    </row>
-    <row r="142" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="7">
+      <c r="B141" s="54"/>
+      <c r="C141" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="G141" s="17"/>
+      <c r="H141" s="20"/>
+    </row>
+    <row r="142" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="30">
         <v>141</v>
       </c>
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="22"/>
-    </row>
-    <row r="143" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="7">
+      <c r="B142" s="55" t="s">
+        <v>444</v>
+      </c>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="20"/>
+    </row>
+    <row r="143" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="30">
         <v>142</v>
       </c>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="22"/>
-    </row>
-    <row r="144" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="36"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="H143" s="20"/>
+    </row>
+    <row r="144" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="22"/>
-    </row>
-    <row r="145" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="7">
+      <c r="B144" s="54"/>
+      <c r="C144" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="20"/>
+    </row>
+    <row r="145" spans="1:8" s="19" customFormat="1" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="30">
         <v>144</v>
       </c>
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="22"/>
-    </row>
-    <row r="146" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H145" s="37"/>
+    </row>
+    <row r="146" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="22"/>
-    </row>
-    <row r="147" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="54"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="20"/>
+    </row>
+    <row r="147" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="22"/>
-    </row>
-    <row r="148" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="54"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="20"/>
+    </row>
+    <row r="148" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="22"/>
+      <c r="B148" s="54"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="20"/>
+    </row>
+    <row r="149" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="7">
+        <v>148</v>
+      </c>
+      <c r="B149" s="54"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="20"/>
+    </row>
+    <row r="150" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="7">
+        <v>149</v>
+      </c>
+      <c r="B150" s="54"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="20"/>
+    </row>
+    <row r="151" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="7">
+        <v>150</v>
+      </c>
+      <c r="B151" s="54"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="20"/>
+    </row>
+    <row r="152" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="7">
+        <v>151</v>
+      </c>
+      <c r="B152" s="54"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="20"/>
+    </row>
+    <row r="153" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="7">
+        <v>152</v>
+      </c>
+      <c r="B153" s="54"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="20"/>
+    </row>
+    <row r="154" spans="1:8" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="7">
+        <v>153</v>
+      </c>
+      <c r="B154" s="54"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="20"/>
+    </row>
+    <row r="161" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="3:3" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C144" r:id="rId1" display="https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=11&amp;cad=rja&amp;uact=8&amp;ved=2ahUKEwj5_tbrh9rlAhVKuVkKHWwxDj4QFjAKegQIABAG&amp;url=https%3A%2F%2Fla.mathworks.com%2F&amp;usg=AOvVaw14bDIOew9mRkNovYbs-hOD"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
